--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-3.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-3.xlsx
@@ -709,11 +709,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72525312"/>
-        <c:axId val="72526848"/>
+        <c:axId val="80028800"/>
+        <c:axId val="80030336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72525312"/>
+        <c:axId val="80028800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,14 +722,14 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72526848"/>
+        <c:crossAx val="80030336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72526848"/>
+        <c:axId val="80030336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +738,7 @@
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72525312"/>
+        <c:crossAx val="80028800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -756,7 +756,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000001221" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001221" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001232" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001232" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="20">
-        <f>VALUE(IF(_input!$A3=0,0,_input!$A3*100/_input!$B3))</f>
+        <f>VALUE(IF(_input!$B3=0,0,_input!$A3*100/_input!$B3))</f>
         <v>0</v>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="20">
-        <f>VALUE(IF(_input!$A4=0,0,_input!$A4*100/_input!$B4))</f>
+        <f>VALUE(IF(_input!$B4=0,0,_input!$A4*100/_input!$B4))</f>
         <v>0</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="20">
-        <f>VALUE(IF(_input!$A5=0,0,_input!$A5*100/_input!$B5))</f>
+        <f>VALUE(IF(_input!$B5=0,0,_input!$A5*100/_input!$B5))</f>
         <v>0</v>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="20">
-        <f>VALUE(IF(_input!$A6=0,0,_input!$A6*100/_input!$B6))</f>
+        <f>VALUE(IF(_input!$B6=0,0,_input!$A6*100/_input!$B6))</f>
         <v>0</v>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="20">
-        <f>VALUE(IF(_input!$A7=0,0,_input!$A7*100/_input!$B7))</f>
+        <f>VALUE(IF(_input!$B7=0,0,_input!$A7*100/_input!$B7))</f>
         <v>0</v>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="20">
-        <f>VALUE(IF(_input!$A8=0,0,_input!$A8*100/_input!$B8))</f>
+        <f>VALUE(IF(_input!$B8=0,0,_input!$A8*100/_input!$B8))</f>
         <v>0</v>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="20">
-        <f>VALUE(IF(_input!$A9=0,0,_input!$A9*100/_input!$B9))</f>
+        <f>VALUE(IF(_input!$B9=0,0,_input!$A9*100/_input!$B9))</f>
         <v>0</v>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="20">
-        <f>VALUE(IF(_input!$A10=0,0,_input!$A10*100/_input!$B10))</f>
+        <f>VALUE(IF(_input!$B10=0,0,_input!$A10*100/_input!$B10))</f>
         <v>0</v>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="20">
-        <f>VALUE(IF(_input!$A11=0,0,_input!$A11*100/_input!$B11))</f>
+        <f>VALUE(IF(_input!$B11=0,0,_input!$A11*100/_input!$B11))</f>
         <v>0</v>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="20">
-        <f>VALUE(IF(_input!$A12=0,0,_input!$A12*100/_input!$B12))</f>
+        <f>VALUE(IF(_input!$B12=0,0,_input!$A12*100/_input!$B12))</f>
         <v>0</v>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="20">
-        <f>VALUE(IF(_input!$A13=0,0,_input!$A13*100/_input!$B13))</f>
+        <f>VALUE(IF(_input!$B13=0,0,_input!$A13*100/_input!$B13))</f>
         <v>0</v>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="20">
-        <f>VALUE(IF(_input!$A14=0,0,_input!$A14*100/_input!$B14))</f>
+        <f>VALUE(IF(_input!$B14=0,0,_input!$A14*100/_input!$B14))</f>
         <v>0</v>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="20">
-        <f>VALUE(IF(_input!$A15=0,0,_input!$A15*100/_input!$B15))</f>
+        <f>VALUE(IF(_input!$B15=0,0,_input!$A15*100/_input!$B15))</f>
         <v>0</v>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="20">
-        <f>VALUE(IF(_input!$A16=0,0,_input!$A16*100/_input!$B16))</f>
+        <f>VALUE(IF(_input!$B16=0,0,_input!$A16*100/_input!$B16))</f>
         <v>0</v>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="20">
-        <f>VALUE(IF(_input!$A17=0,0,_input!$A17*100/_input!$B17))</f>
+        <f>VALUE(IF(_input!$B17=0,0,_input!$A17*100/_input!$B17))</f>
         <v>0</v>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="20">
-        <f>VALUE(IF(_input!$A18=0,0,_input!$A18*100/_input!$B18))</f>
+        <f>VALUE(IF(_input!$B18=0,0,_input!$A18*100/_input!$B18))</f>
         <v>0</v>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="20">
-        <f>VALUE(IF(_input!$A19=0,0,_input!$A19*100/_input!$B19))</f>
+        <f>VALUE(IF(_input!$B19=0,0,_input!$A19*100/_input!$B19))</f>
         <v>0</v>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="20">
-        <f>VALUE(IF(_input!$A20=0,0,_input!$A20*100/_input!$B20))</f>
+        <f>VALUE(IF(_input!$B20=0,0,_input!$A20*100/_input!$B20))</f>
         <v>0</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="20">
-        <f>VALUE(IF(_input!$A21=0,0,_input!$A21*100/_input!$B21))</f>
+        <f>VALUE(IF(_input!$B21=0,0,_input!$A21*100/_input!$B21))</f>
         <v>0</v>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="20">
-        <f>VALUE(IF(_input!$A22=0,0,_input!$A22*100/_input!$B22))</f>
+        <f>VALUE(IF(_input!$B22=0,0,_input!$A22*100/_input!$B22))</f>
         <v>0</v>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="20">
-        <f>VALUE(IF(_input!$A23=0,0,_input!$A23*100/_input!$B23))</f>
+        <f>VALUE(IF(_input!$B23=0,0,_input!$A23*100/_input!$B23))</f>
         <v>0</v>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="20">
-        <f>VALUE(IF(_input!$A24=0,0,_input!$A24*100/_input!$B24))</f>
+        <f>VALUE(IF(_input!$B24=0,0,_input!$A24*100/_input!$B24))</f>
         <v>0</v>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="20">
-        <f>VALUE(IF(_input!$A25=0,0,_input!$A25*100/_input!$B25))</f>
+        <f>VALUE(IF(_input!$B25=0,0,_input!$A25*100/_input!$B25))</f>
         <v>0</v>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="20">
-        <f>VALUE(IF(_input!$A26=0,0,_input!$A26*100/_input!$B26))</f>
+        <f>VALUE(IF(_input!$B26=0,0,_input!$A26*100/_input!$B26))</f>
         <v>0</v>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="20">
-        <f>VALUE(IF(_input!$A27=0,0,_input!$A27*100/_input!$B27))</f>
+        <f>VALUE(IF(_input!$B27=0,0,_input!$A27*100/_input!$B27))</f>
         <v>0</v>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="20">
-        <f>VALUE(IF(_input!$A28=0,0,_input!$A28*100/_input!$B28))</f>
+        <f>VALUE(IF(_input!$B28=0,0,_input!$A28*100/_input!$B28))</f>
         <v>0</v>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="20">
-        <f>VALUE(IF(_input!$A29=0,0,_input!$A29*100/_input!$B29))</f>
+        <f>VALUE(IF(_input!$B29=0,0,_input!$A29*100/_input!$B29))</f>
         <v>0</v>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="20">
-        <f>VALUE(IF(_input!$A30=0,0,_input!$A30*100/_input!$B30))</f>
+        <f>VALUE(IF(_input!$B30=0,0,_input!$A30*100/_input!$B30))</f>
         <v>0</v>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="20">
-        <f>VALUE(IF(_input!$A31=0,0,_input!$A31*100/_input!$B31))</f>
+        <f>VALUE(IF(_input!$B31=0,0,_input!$A31*100/_input!$B31))</f>
         <v>0</v>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="20">
-        <f>VALUE(IF(_input!$A32=0,0,_input!$A32*100/_input!$B32))</f>
+        <f>VALUE(IF(_input!$B32=0,0,_input!$A32*100/_input!$B32))</f>
         <v>0</v>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="20">
-        <f>VALUE(IF(_input!$A33=0,0,_input!$A33*100/_input!$B33))</f>
+        <f>VALUE(IF(_input!$B33=0,0,_input!$A33*100/_input!$B33))</f>
         <v>0</v>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="20">
-        <f>VALUE(IF(_input!$A34=0,0,_input!$A34*100/_input!$B34))</f>
+        <f>VALUE(IF(_input!$B34=0,0,_input!$A34*100/_input!$B34))</f>
         <v>0</v>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="20">
-        <f>VALUE(IF(_input!$A35=0,0,_input!$A35*100/_input!$B35))</f>
+        <f>VALUE(IF(_input!$B35=0,0,_input!$A35*100/_input!$B35))</f>
         <v>0</v>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="20">
-        <f>VALUE(IF(_input!$A36=0,0,_input!$A36*100/_input!$B36))</f>
+        <f>VALUE(IF(_input!$B36=0,0,_input!$A36*100/_input!$B36))</f>
         <v>0</v>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="20">
-        <f>VALUE(IF(_input!$A37=0,0,_input!$A37*100/_input!$B37))</f>
+        <f>VALUE(IF(_input!$B37=0,0,_input!$A37*100/_input!$B37))</f>
         <v>0</v>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="20">
-        <f>VALUE(IF(_input!$A38=0,0,_input!$A38*100/_input!$B38))</f>
+        <f>VALUE(IF(_input!$B38=0,0,_input!$A38*100/_input!$B38))</f>
         <v>0</v>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="20">
-        <f>VALUE(IF(_input!$A39=0,0,_input!$A39*100/_input!$B39))</f>
+        <f>VALUE(IF(_input!$B39=0,0,_input!$A39*100/_input!$B39))</f>
         <v>0</v>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="20">
-        <f>VALUE(IF(_input!$A40=0,0,_input!$A40*100/_input!$B40))</f>
+        <f>VALUE(IF(_input!$B40=0,0,_input!$A40*100/_input!$B40))</f>
         <v>0</v>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="20">
-        <f>VALUE(IF(_input!$A41=0,0,_input!$A41*100/_input!$B41))</f>
+        <f>VALUE(IF(_input!$B41=0,0,_input!$A41*100/_input!$B41))</f>
         <v>0</v>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="20">
-        <f>VALUE(IF(_input!$A42=0,0,_input!$A42*100/_input!$B42))</f>
+        <f>VALUE(IF(_input!$B42=0,0,_input!$A42*100/_input!$B42))</f>
         <v>0</v>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="20">
-        <f>VALUE(IF(_input!$A43=0,0,_input!$A43*100/_input!$B43))</f>
+        <f>VALUE(IF(_input!$B43=0,0,_input!$A43*100/_input!$B43))</f>
         <v>0</v>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="20">
-        <f>VALUE(IF(_input!$A44=0,0,_input!$A44*100/_input!$B44))</f>
+        <f>VALUE(IF(_input!$B44=0,0,_input!$A44*100/_input!$B44))</f>
         <v>0</v>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="20">
-        <f>VALUE(IF(_input!$A45=0,0,_input!$A45*100/_input!$B45))</f>
+        <f>VALUE(IF(_input!$B45=0,0,_input!$A45*100/_input!$B45))</f>
         <v>0</v>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="20">
-        <f>VALUE(IF(_input!$A46=0,0,_input!$A46*100/_input!$B46))</f>
+        <f>VALUE(IF(_input!$B46=0,0,_input!$A46*100/_input!$B46))</f>
         <v>0</v>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="20">
-        <f>VALUE(IF(_input!$A47=0,0,_input!$A47*100/_input!$B47))</f>
+        <f>VALUE(IF(_input!$B47=0,0,_input!$A47*100/_input!$B47))</f>
         <v>0</v>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="20">
-        <f>VALUE(IF(_input!$A48=0,0,_input!$A48*100/_input!$B48))</f>
+        <f>VALUE(IF(_input!$B48=0,0,_input!$A48*100/_input!$B48))</f>
         <v>0</v>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="20">
-        <f>VALUE(IF(_input!$A49=0,0,_input!$A49*100/_input!$B49))</f>
+        <f>VALUE(IF(_input!$B49=0,0,_input!$A49*100/_input!$B49))</f>
         <v>0</v>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="20">
-        <f>VALUE(IF(_input!$A50=0,0,_input!$A50*100/_input!$B50))</f>
+        <f>VALUE(IF(_input!$B50=0,0,_input!$A50*100/_input!$B50))</f>
         <v>0</v>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="20">
-        <f>VALUE(IF(_input!$A51=0,0,_input!$A51*100/_input!$B51))</f>
+        <f>VALUE(IF(_input!$B51=0,0,_input!$A51*100/_input!$B51))</f>
         <v>0</v>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="20">
-        <f>VALUE(IF(_input!$A52=0,0,_input!$A52*100/_input!$B52))</f>
+        <f>VALUE(IF(_input!$B52=0,0,_input!$A52*100/_input!$B52))</f>
         <v>0</v>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="20">
-        <f>VALUE(IF(_input!$A53=0,0,_input!$A53*100/_input!$B53))</f>
+        <f>VALUE(IF(_input!$B53=0,0,_input!$A53*100/_input!$B53))</f>
         <v>0</v>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="20">
-        <f>VALUE(IF(_input!$A54=0,0,_input!$A54*100/_input!$B54))</f>
+        <f>VALUE(IF(_input!$B54=0,0,_input!$A54*100/_input!$B54))</f>
         <v>0</v>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="20">
-        <f>VALUE(IF(_input!$A55=0,0,_input!$A55*100/_input!$B55))</f>
+        <f>VALUE(IF(_input!$B55=0,0,_input!$A55*100/_input!$B55))</f>
         <v>0</v>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="C55" s="20">
-        <f>VALUE(IF(_input!$A56=0,0,_input!$A56*100/_input!$B56))</f>
+        <f>VALUE(IF(_input!$B56=0,0,_input!$A56*100/_input!$B56))</f>
         <v>0</v>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="20">
-        <f>VALUE(IF(_input!$A57=0,0,_input!$A57*100/_input!$B57))</f>
+        <f>VALUE(IF(_input!$B57=0,0,_input!$A57*100/_input!$B57))</f>
         <v>0</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="20">
-        <f>VALUE(IF(_input!$A58=0,0,_input!$A58*100/_input!$B58))</f>
+        <f>VALUE(IF(_input!$B58=0,0,_input!$A58*100/_input!$B58))</f>
         <v>0</v>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="20">
-        <f>VALUE(IF(_input!$A59=0,0,_input!$A59*100/_input!$B59))</f>
+        <f>VALUE(IF(_input!$B59=0,0,_input!$A59*100/_input!$B59))</f>
         <v>0</v>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="20">
-        <f>VALUE(IF(_input!$A60=0,0,_input!$A60*100/_input!$B60))</f>
+        <f>VALUE(IF(_input!$B60=0,0,_input!$A60*100/_input!$B60))</f>
         <v>0</v>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="20">
-        <f>VALUE(IF(_input!$A61=0,0,_input!$A61*100/_input!$B61))</f>
+        <f>VALUE(IF(_input!$B61=0,0,_input!$A61*100/_input!$B61))</f>
         <v>0</v>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="20">
-        <f>VALUE(IF(_input!$A62=0,0,_input!$A62*100/_input!$B62))</f>
+        <f>VALUE(IF(_input!$B62=0,0,_input!$A62*100/_input!$B62))</f>
         <v>0</v>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="20">
-        <f>VALUE(IF(_input!$A63=0,0,_input!$A63*100/_input!$B63))</f>
+        <f>VALUE(IF(_input!$B63=0,0,_input!$A63*100/_input!$B63))</f>
         <v>0</v>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="20">
-        <f>VALUE(IF(_input!$A64=0,0,_input!$A64*100/_input!$B64))</f>
+        <f>VALUE(IF(_input!$B64=0,0,_input!$A64*100/_input!$B64))</f>
         <v>0</v>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="20">
-        <f>VALUE(IF(_input!$A65=0,0,_input!$A65*100/_input!$B65))</f>
+        <f>VALUE(IF(_input!$B65=0,0,_input!$A65*100/_input!$B65))</f>
         <v>0</v>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="20">
-        <f>VALUE(IF(_input!$A66=0,0,_input!$A66*100/_input!$B66))</f>
+        <f>VALUE(IF(_input!$B66=0,0,_input!$A66*100/_input!$B66))</f>
         <v>0</v>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="20">
-        <f>VALUE(IF(_input!$A67=0,0,_input!$A67*100/_input!$B67))</f>
+        <f>VALUE(IF(_input!$B67=0,0,_input!$A67*100/_input!$B67))</f>
         <v>0</v>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="20">
-        <f>VALUE(IF(_input!$A68=0,0,_input!$A68*100/_input!$B68))</f>
+        <f>VALUE(IF(_input!$B68=0,0,_input!$A68*100/_input!$B68))</f>
         <v>0</v>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="20">
-        <f>VALUE(IF(_input!$A69=0,0,_input!$A69*100/_input!$B69))</f>
+        <f>VALUE(IF(_input!$B69=0,0,_input!$A69*100/_input!$B69))</f>
         <v>0</v>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="20">
-        <f>VALUE(IF(_input!$A70=0,0,_input!$A70*100/_input!$B70))</f>
+        <f>VALUE(IF(_input!$B70=0,0,_input!$A70*100/_input!$B70))</f>
         <v>0</v>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="20">
-        <f>VALUE(IF(_input!$A71=0,0,_input!$A71*100/_input!$B71))</f>
+        <f>VALUE(IF(_input!$B71=0,0,_input!$A71*100/_input!$B71))</f>
         <v>0</v>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="20">
-        <f>VALUE(IF(_input!$A72=0,0,_input!$A72*100/_input!$B72))</f>
+        <f>VALUE(IF(_input!$B72=0,0,_input!$A72*100/_input!$B72))</f>
         <v>0</v>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="20">
-        <f>VALUE(IF(_input!$A73=0,0,_input!$A73*100/_input!$B73))</f>
+        <f>VALUE(IF(_input!$B73=0,0,_input!$A73*100/_input!$B73))</f>
         <v>0</v>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="20">
-        <f>VALUE(IF(_input!$A74=0,0,_input!$A74*100/_input!$B74))</f>
+        <f>VALUE(IF(_input!$B74=0,0,_input!$A74*100/_input!$B74))</f>
         <v>0</v>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="20">
-        <f>VALUE(IF(_input!$A75=0,0,_input!$A75*100/_input!$B75))</f>
+        <f>VALUE(IF(_input!$B75=0,0,_input!$A75*100/_input!$B75))</f>
         <v>0</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="20">
-        <f>VALUE(IF(_input!$A76=0,0,_input!$A76*100/_input!$B76))</f>
+        <f>VALUE(IF(_input!$B76=0,0,_input!$A76*100/_input!$B76))</f>
         <v>0</v>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="20">
-        <f>VALUE(IF(_input!$A77=0,0,_input!$A77*100/_input!$B77))</f>
+        <f>VALUE(IF(_input!$B77=0,0,_input!$A77*100/_input!$B77))</f>
         <v>0</v>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="20">
-        <f>VALUE(IF(_input!$A78=0,0,_input!$A78*100/_input!$B78))</f>
+        <f>VALUE(IF(_input!$B78=0,0,_input!$A78*100/_input!$B78))</f>
         <v>0</v>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="20">
-        <f>VALUE(IF(_input!$A79=0,0,_input!$A79*100/_input!$B79))</f>
+        <f>VALUE(IF(_input!$B79=0,0,_input!$A79*100/_input!$B79))</f>
         <v>0</v>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="20">
-        <f>VALUE(IF(_input!$A80=0,0,_input!$A80*100/_input!$B80))</f>
+        <f>VALUE(IF(_input!$B80=0,0,_input!$A80*100/_input!$B80))</f>
         <v>0</v>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="20">
-        <f>VALUE(IF(_input!$A81=0,0,_input!$A81*100/_input!$B81))</f>
+        <f>VALUE(IF(_input!$B81=0,0,_input!$A81*100/_input!$B81))</f>
         <v>0</v>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="20">
-        <f>VALUE(IF(_input!$A82=0,0,_input!$A82*100/_input!$B82))</f>
+        <f>VALUE(IF(_input!$B82=0,0,_input!$A82*100/_input!$B82))</f>
         <v>0</v>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="20">
-        <f>VALUE(IF(_input!$A83=0,0,_input!$A83*100/_input!$B83))</f>
+        <f>VALUE(IF(_input!$B83=0,0,_input!$A83*100/_input!$B83))</f>
         <v>0</v>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="20">
-        <f>VALUE(IF(_input!$A84=0,0,_input!$A84*100/_input!$B84))</f>
+        <f>VALUE(IF(_input!$B84=0,0,_input!$A84*100/_input!$B84))</f>
         <v>0</v>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="20">
-        <f>VALUE(IF(_input!$A85=0,0,_input!$A85*100/_input!$B85))</f>
+        <f>VALUE(IF(_input!$B85=0,0,_input!$A85*100/_input!$B85))</f>
         <v>0</v>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="20">
-        <f>VALUE(IF(_input!$A86=0,0,_input!$A86*100/_input!$B86))</f>
+        <f>VALUE(IF(_input!$B86=0,0,_input!$A86*100/_input!$B86))</f>
         <v>0</v>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="20">
-        <f>VALUE(IF(_input!$A87=0,0,_input!$A87*100/_input!$B87))</f>
+        <f>VALUE(IF(_input!$B87=0,0,_input!$A87*100/_input!$B87))</f>
         <v>0</v>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="20">
-        <f>VALUE(IF(_input!$A88=0,0,_input!$A88*100/_input!$B88))</f>
+        <f>VALUE(IF(_input!$B88=0,0,_input!$A88*100/_input!$B88))</f>
         <v>0</v>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="20">
-        <f>VALUE(IF(_input!$A89=0,0,_input!$A89*100/_input!$B89))</f>
+        <f>VALUE(IF(_input!$B89=0,0,_input!$A89*100/_input!$B89))</f>
         <v>0</v>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="20">
-        <f>VALUE(IF(_input!$A90=0,0,_input!$A90*100/_input!$B90))</f>
+        <f>VALUE(IF(_input!$B90=0,0,_input!$A90*100/_input!$B90))</f>
         <v>0</v>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="20">
-        <f>VALUE(IF(_input!$A91=0,0,_input!$A91*100/_input!$B91))</f>
+        <f>VALUE(IF(_input!$B91=0,0,_input!$A91*100/_input!$B91))</f>
         <v>0</v>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="20">
-        <f>VALUE(IF(_input!$A92=0,0,_input!$A92*100/_input!$B92))</f>
+        <f>VALUE(IF(_input!$B92=0,0,_input!$A92*100/_input!$B92))</f>
         <v>0</v>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="20">
-        <f>VALUE(IF(_input!$A93=0,0,_input!$A93*100/_input!$B93))</f>
+        <f>VALUE(IF(_input!$B93=0,0,_input!$A93*100/_input!$B93))</f>
         <v>0</v>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="20">
-        <f>VALUE(IF(_input!$A94=0,0,_input!$A94*100/_input!$B94))</f>
+        <f>VALUE(IF(_input!$B94=0,0,_input!$A94*100/_input!$B94))</f>
         <v>0</v>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="20">
-        <f>VALUE(IF(_input!$A95=0,0,_input!$A95*100/_input!$B95))</f>
+        <f>VALUE(IF(_input!$B95=0,0,_input!$A95*100/_input!$B95))</f>
         <v>0</v>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="20">
-        <f>VALUE(IF(_input!$A96=0,0,_input!$A96*100/_input!$B96))</f>
+        <f>VALUE(IF(_input!$B96=0,0,_input!$A96*100/_input!$B96))</f>
         <v>0</v>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="20">
-        <f>VALUE(IF(_input!$A97=0,0,_input!$A97*100/_input!$B97))</f>
+        <f>VALUE(IF(_input!$B97=0,0,_input!$A97*100/_input!$B97))</f>
         <v>0</v>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="20">
-        <f>VALUE(IF(_input!$A98=0,0,_input!$A98*100/_input!$B98))</f>
+        <f>VALUE(IF(_input!$B98=0,0,_input!$A98*100/_input!$B98))</f>
         <v>0</v>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="20">
-        <f>VALUE(IF(_input!$A99=0,0,_input!$A99*100/_input!$B99))</f>
+        <f>VALUE(IF(_input!$B99=0,0,_input!$A99*100/_input!$B99))</f>
         <v>0</v>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="20">
-        <f>VALUE(IF(_input!$A100=0,0,_input!$A100*100/_input!$B100))</f>
+        <f>VALUE(IF(_input!$B100=0,0,_input!$A100*100/_input!$B100))</f>
         <v>0</v>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="20">
-        <f>VALUE(IF(_input!$A101=0,0,_input!$A101*100/_input!$B101))</f>
+        <f>VALUE(IF(_input!$B101=0,0,_input!$A101*100/_input!$B101))</f>
         <v>0</v>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="20">
-        <f>VALUE(IF(_input!$A102=0,0,_input!$A102*100/_input!$B102))</f>
+        <f>VALUE(IF(_input!$B102=0,0,_input!$A102*100/_input!$B102))</f>
         <v>0</v>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="20">
-        <f>VALUE(IF(_input!$A103=0,0,_input!$A103*100/_input!$B103))</f>
+        <f>VALUE(IF(_input!$B103=0,0,_input!$A103*100/_input!$B103))</f>
         <v>0</v>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="20">
-        <f>VALUE(IF(_input!$A104=0,0,_input!$A104*100/_input!$B104))</f>
+        <f>VALUE(IF(_input!$B104=0,0,_input!$A104*100/_input!$B104))</f>
         <v>0</v>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="20">
-        <f>VALUE(IF(_input!$A105=0,0,_input!$A105*100/_input!$B105))</f>
+        <f>VALUE(IF(_input!$B105=0,0,_input!$A105*100/_input!$B105))</f>
         <v>0</v>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="20">
-        <f>VALUE(IF(_input!$A106=0,0,_input!$A106*100/_input!$B106))</f>
+        <f>VALUE(IF(_input!$B106=0,0,_input!$A106*100/_input!$B106))</f>
         <v>0</v>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="20">
-        <f>VALUE(IF(_input!$A107=0,0,_input!$A107*100/_input!$B107))</f>
+        <f>VALUE(IF(_input!$B107=0,0,_input!$A107*100/_input!$B107))</f>
         <v>0</v>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="20">
-        <f>VALUE(IF(_input!$A108=0,0,_input!$A108*100/_input!$B108))</f>
+        <f>VALUE(IF(_input!$B108=0,0,_input!$A108*100/_input!$B108))</f>
         <v>0</v>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="20">
-        <f>VALUE(IF(_input!$A109=0,0,_input!$A109*100/_input!$B109))</f>
+        <f>VALUE(IF(_input!$B109=0,0,_input!$A109*100/_input!$B109))</f>
         <v>0</v>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="20">
-        <f>VALUE(IF(_input!$A110=0,0,_input!$A110*100/_input!$B110))</f>
+        <f>VALUE(IF(_input!$B110=0,0,_input!$A110*100/_input!$B110))</f>
         <v>0</v>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="20">
-        <f>VALUE(IF(_input!$A111=0,0,_input!$A111*100/_input!$B111))</f>
+        <f>VALUE(IF(_input!$B111=0,0,_input!$A111*100/_input!$B111))</f>
         <v>0</v>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="20">
-        <f>VALUE(IF(_input!$A112=0,0,_input!$A112*100/_input!$B112))</f>
+        <f>VALUE(IF(_input!$B112=0,0,_input!$A112*100/_input!$B112))</f>
         <v>0</v>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="20">
-        <f>VALUE(IF(_input!$A113=0,0,_input!$A113*100/_input!$B113))</f>
+        <f>VALUE(IF(_input!$B113=0,0,_input!$A113*100/_input!$B113))</f>
         <v>0</v>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="20">
-        <f>VALUE(IF(_input!$A114=0,0,_input!$A114*100/_input!$B114))</f>
+        <f>VALUE(IF(_input!$B114=0,0,_input!$A114*100/_input!$B114))</f>
         <v>0</v>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="20">
-        <f>VALUE(IF(_input!$A115=0,0,_input!$A115*100/_input!$B115))</f>
+        <f>VALUE(IF(_input!$B115=0,0,_input!$A115*100/_input!$B115))</f>
         <v>0</v>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="20">
-        <f>VALUE(IF(_input!$A116=0,0,_input!$A116*100/_input!$B116))</f>
+        <f>VALUE(IF(_input!$B116=0,0,_input!$A116*100/_input!$B116))</f>
         <v>0</v>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="20">
-        <f>VALUE(IF(_input!$A117=0,0,_input!$A117*100/_input!$B117))</f>
+        <f>VALUE(IF(_input!$B117=0,0,_input!$A117*100/_input!$B117))</f>
         <v>0</v>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="20">
-        <f>VALUE(IF(_input!$A118=0,0,_input!$A118*100/_input!$B118))</f>
+        <f>VALUE(IF(_input!$B118=0,0,_input!$A118*100/_input!$B118))</f>
         <v>0</v>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="20">
-        <f>VALUE(IF(_input!$A119=0,0,_input!$A119*100/_input!$B119))</f>
+        <f>VALUE(IF(_input!$B119=0,0,_input!$A119*100/_input!$B119))</f>
         <v>0</v>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="20">
-        <f>VALUE(IF(_input!$A120=0,0,_input!$A120*100/_input!$B120))</f>
+        <f>VALUE(IF(_input!$B120=0,0,_input!$A120*100/_input!$B120))</f>
         <v>0</v>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="20">
-        <f>VALUE(IF(_input!$A121=0,0,_input!$A121*100/_input!$B121))</f>
+        <f>VALUE(IF(_input!$B121=0,0,_input!$A121*100/_input!$B121))</f>
         <v>0</v>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="20">
-        <f>VALUE(IF(_input!$A122=0,0,_input!$A122*100/_input!$B122))</f>
+        <f>VALUE(IF(_input!$B122=0,0,_input!$A122*100/_input!$B122))</f>
         <v>0</v>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="20">
-        <f>VALUE(IF(_input!$A123=0,0,_input!$A123*100/_input!$B123))</f>
+        <f>VALUE(IF(_input!$B123=0,0,_input!$A123*100/_input!$B123))</f>
         <v>0</v>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="20">
-        <f>VALUE(IF(_input!$A124=0,0,_input!$A124*100/_input!$B124))</f>
+        <f>VALUE(IF(_input!$B124=0,0,_input!$A124*100/_input!$B124))</f>
         <v>0</v>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="20">
-        <f>VALUE(IF(_input!$A125=0,0,_input!$A125*100/_input!$B125))</f>
+        <f>VALUE(IF(_input!$B125=0,0,_input!$A125*100/_input!$B125))</f>
         <v>0</v>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="20">
-        <f>VALUE(IF(_input!$A126=0,0,_input!$A126*100/_input!$B126))</f>
+        <f>VALUE(IF(_input!$B126=0,0,_input!$A126*100/_input!$B126))</f>
         <v>0</v>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="20">
-        <f>VALUE(IF(_input!$A127=0,0,_input!$A127*100/_input!$B127))</f>
+        <f>VALUE(IF(_input!$B127=0,0,_input!$A127*100/_input!$B127))</f>
         <v>0</v>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="20">
-        <f>VALUE(IF(_input!$A128=0,0,_input!$A128*100/_input!$B128))</f>
+        <f>VALUE(IF(_input!$B128=0,0,_input!$A128*100/_input!$B128))</f>
         <v>0</v>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="20">
-        <f>VALUE(IF(_input!$A129=0,0,_input!$A129*100/_input!$B129))</f>
+        <f>VALUE(IF(_input!$B129=0,0,_input!$A129*100/_input!$B129))</f>
         <v>0</v>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="20">
-        <f>VALUE(IF(_input!$A130=0,0,_input!$A130*100/_input!$B130))</f>
+        <f>VALUE(IF(_input!$B130=0,0,_input!$A130*100/_input!$B130))</f>
         <v>0</v>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="C130" s="20">
-        <f>VALUE(IF(_input!$A131=0,0,_input!$A131*100/_input!$B131))</f>
+        <f>VALUE(IF(_input!$B131=0,0,_input!$A131*100/_input!$B131))</f>
         <v>0</v>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="20">
-        <f>VALUE(IF(_input!$A132=0,0,_input!$A132*100/_input!$B132))</f>
+        <f>VALUE(IF(_input!$B132=0,0,_input!$A132*100/_input!$B132))</f>
         <v>0</v>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="20">
-        <f>VALUE(IF(_input!$A133=0,0,_input!$A133*100/_input!$B133))</f>
+        <f>VALUE(IF(_input!$B133=0,0,_input!$A133*100/_input!$B133))</f>
         <v>0</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="20">
-        <f>VALUE(IF(_input!$A134=0,0,_input!$A134*100/_input!$B134))</f>
+        <f>VALUE(IF(_input!$B134=0,0,_input!$A134*100/_input!$B134))</f>
         <v>0</v>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="20">
-        <f>VALUE(IF(_input!$A135=0,0,_input!$A135*100/_input!$B135))</f>
+        <f>VALUE(IF(_input!$B135=0,0,_input!$A135*100/_input!$B135))</f>
         <v>0</v>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="C135" s="20">
-        <f>VALUE(IF(_input!$A136=0,0,_input!$A136*100/_input!$B136))</f>
+        <f>VALUE(IF(_input!$B136=0,0,_input!$A136*100/_input!$B136))</f>
         <v>0</v>
       </c>
     </row>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="20">
-        <f>VALUE(IF(_input!$A137=0,0,_input!$A137*100/_input!$B137))</f>
+        <f>VALUE(IF(_input!$B137=0,0,_input!$A137*100/_input!$B137))</f>
         <v>0</v>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="C137" s="20">
-        <f>VALUE(IF(_input!$A138=0,0,_input!$A138*100/_input!$B138))</f>
+        <f>VALUE(IF(_input!$B138=0,0,_input!$A138*100/_input!$B138))</f>
         <v>0</v>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="C138" s="20">
-        <f>VALUE(IF(_input!$A139=0,0,_input!$A139*100/_input!$B139))</f>
+        <f>VALUE(IF(_input!$B139=0,0,_input!$A139*100/_input!$B139))</f>
         <v>0</v>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C139" s="20">
-        <f>VALUE(IF(_input!$A140=0,0,_input!$A140*100/_input!$B140))</f>
+        <f>VALUE(IF(_input!$B140=0,0,_input!$A140*100/_input!$B140))</f>
         <v>0</v>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="C140" s="20">
-        <f>VALUE(IF(_input!$A141=0,0,_input!$A141*100/_input!$B141))</f>
+        <f>VALUE(IF(_input!$B141=0,0,_input!$A141*100/_input!$B141))</f>
         <v>0</v>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C141" s="20">
-        <f>VALUE(IF(_input!$A142=0,0,_input!$A142*100/_input!$B142))</f>
+        <f>VALUE(IF(_input!$B142=0,0,_input!$A142*100/_input!$B142))</f>
         <v>0</v>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="20">
-        <f>VALUE(IF(_input!$A143=0,0,_input!$A143*100/_input!$B143))</f>
+        <f>VALUE(IF(_input!$B143=0,0,_input!$A143*100/_input!$B143))</f>
         <v>0</v>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="20">
-        <f>VALUE(IF(_input!$A144=0,0,_input!$A144*100/_input!$B144))</f>
+        <f>VALUE(IF(_input!$B144=0,0,_input!$A144*100/_input!$B144))</f>
         <v>0</v>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="C144" s="20">
-        <f>VALUE(IF(_input!$A145=0,0,_input!$A145*100/_input!$B145))</f>
+        <f>VALUE(IF(_input!$B145=0,0,_input!$A145*100/_input!$B145))</f>
         <v>0</v>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="20">
-        <f>VALUE(IF(_input!$A146=0,0,_input!$A146*100/_input!$B146))</f>
+        <f>VALUE(IF(_input!$B146=0,0,_input!$A146*100/_input!$B146))</f>
         <v>0</v>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="20">
-        <f>VALUE(IF(_input!$A147=0,0,_input!$A147*100/_input!$B147))</f>
+        <f>VALUE(IF(_input!$B147=0,0,_input!$A147*100/_input!$B147))</f>
         <v>0</v>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="20">
-        <f>VALUE(IF(_input!$A148=0,0,_input!$A148*100/_input!$B148))</f>
+        <f>VALUE(IF(_input!$B148=0,0,_input!$A148*100/_input!$B148))</f>
         <v>0</v>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="20">
-        <f>VALUE(IF(_input!$A149=0,0,_input!$A149*100/_input!$B149))</f>
+        <f>VALUE(IF(_input!$B149=0,0,_input!$A149*100/_input!$B149))</f>
         <v>0</v>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="20">
-        <f>VALUE(IF(_input!$A150=0,0,_input!$A150*100/_input!$B150))</f>
+        <f>VALUE(IF(_input!$B150=0,0,_input!$A150*100/_input!$B150))</f>
         <v>0</v>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="20">
-        <f>VALUE(IF(_input!$A151=0,0,_input!$A151*100/_input!$B151))</f>
+        <f>VALUE(IF(_input!$B151=0,0,_input!$A151*100/_input!$B151))</f>
         <v>0</v>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C151" s="20">
-        <f>VALUE(IF(_input!$A152=0,0,_input!$A152*100/_input!$B152))</f>
+        <f>VALUE(IF(_input!$B152=0,0,_input!$A152*100/_input!$B152))</f>
         <v>0</v>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="20">
-        <f>VALUE(IF(_input!$A153=0,0,_input!$A153*100/_input!$B153))</f>
+        <f>VALUE(IF(_input!$B153=0,0,_input!$A153*100/_input!$B153))</f>
         <v>0</v>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="20">
-        <f>VALUE(IF(_input!$A154=0,0,_input!$A154*100/_input!$B154))</f>
+        <f>VALUE(IF(_input!$B154=0,0,_input!$A154*100/_input!$B154))</f>
         <v>0</v>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="C154" s="20">
-        <f>VALUE(IF(_input!$A155=0,0,_input!$A155*100/_input!$B155))</f>
+        <f>VALUE(IF(_input!$B155=0,0,_input!$A155*100/_input!$B155))</f>
         <v>0</v>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="20">
-        <f>VALUE(IF(_input!$A156=0,0,_input!$A156*100/_input!$B156))</f>
+        <f>VALUE(IF(_input!$B156=0,0,_input!$A156*100/_input!$B156))</f>
         <v>0</v>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="C156" s="20">
-        <f>VALUE(IF(_input!$A157=0,0,_input!$A157*100/_input!$B157))</f>
+        <f>VALUE(IF(_input!$B157=0,0,_input!$A157*100/_input!$B157))</f>
         <v>0</v>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="20">
-        <f>VALUE(IF(_input!$A158=0,0,_input!$A158*100/_input!$B158))</f>
+        <f>VALUE(IF(_input!$B158=0,0,_input!$A158*100/_input!$B158))</f>
         <v>0</v>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="C158" s="20">
-        <f>VALUE(IF(_input!$A159=0,0,_input!$A159*100/_input!$B159))</f>
+        <f>VALUE(IF(_input!$B159=0,0,_input!$A159*100/_input!$B159))</f>
         <v>0</v>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="C159" s="20">
-        <f>VALUE(IF(_input!$A160=0,0,_input!$A160*100/_input!$B160))</f>
+        <f>VALUE(IF(_input!$B160=0,0,_input!$A160*100/_input!$B160))</f>
         <v>0</v>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="C160" s="20">
-        <f>VALUE(IF(_input!$A161=0,0,_input!$A161*100/_input!$B161))</f>
+        <f>VALUE(IF(_input!$B161=0,0,_input!$A161*100/_input!$B161))</f>
         <v>0</v>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="C161" s="20">
-        <f>VALUE(IF(_input!$A162=0,0,_input!$A162*100/_input!$B162))</f>
+        <f>VALUE(IF(_input!$B162=0,0,_input!$A162*100/_input!$B162))</f>
         <v>0</v>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="C162" s="20">
-        <f>VALUE(IF(_input!$A163=0,0,_input!$A163*100/_input!$B163))</f>
+        <f>VALUE(IF(_input!$B163=0,0,_input!$A163*100/_input!$B163))</f>
         <v>0</v>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="C163" s="20">
-        <f>VALUE(IF(_input!$A164=0,0,_input!$A164*100/_input!$B164))</f>
+        <f>VALUE(IF(_input!$B164=0,0,_input!$A164*100/_input!$B164))</f>
         <v>0</v>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="C164" s="20">
-        <f>VALUE(IF(_input!$A165=0,0,_input!$A165*100/_input!$B165))</f>
+        <f>VALUE(IF(_input!$B165=0,0,_input!$A165*100/_input!$B165))</f>
         <v>0</v>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="C165" s="20">
-        <f>VALUE(IF(_input!$A166=0,0,_input!$A166*100/_input!$B166))</f>
+        <f>VALUE(IF(_input!$B166=0,0,_input!$A166*100/_input!$B166))</f>
         <v>0</v>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="C166" s="20">
-        <f>VALUE(IF(_input!$A167=0,0,_input!$A167*100/_input!$B167))</f>
+        <f>VALUE(IF(_input!$B167=0,0,_input!$A167*100/_input!$B167))</f>
         <v>0</v>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="C167" s="20">
-        <f>VALUE(IF(_input!$A168=0,0,_input!$A168*100/_input!$B168))</f>
+        <f>VALUE(IF(_input!$B168=0,0,_input!$A168*100/_input!$B168))</f>
         <v>0</v>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="C168" s="20">
-        <f>VALUE(IF(_input!$A169=0,0,_input!$A169*100/_input!$B169))</f>
+        <f>VALUE(IF(_input!$B169=0,0,_input!$A169*100/_input!$B169))</f>
         <v>0</v>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="C169" s="20">
-        <f>VALUE(IF(_input!$A170=0,0,_input!$A170*100/_input!$B170))</f>
+        <f>VALUE(IF(_input!$B170=0,0,_input!$A170*100/_input!$B170))</f>
         <v>0</v>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="C170" s="20">
-        <f>VALUE(IF(_input!$A171=0,0,_input!$A171*100/_input!$B171))</f>
+        <f>VALUE(IF(_input!$B171=0,0,_input!$A171*100/_input!$B171))</f>
         <v>0</v>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="C171" s="20">
-        <f>VALUE(IF(_input!$A172=0,0,_input!$A172*100/_input!$B172))</f>
+        <f>VALUE(IF(_input!$B172=0,0,_input!$A172*100/_input!$B172))</f>
         <v>0</v>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="C172" s="20">
-        <f>VALUE(IF(_input!$A173=0,0,_input!$A173*100/_input!$B173))</f>
+        <f>VALUE(IF(_input!$B173=0,0,_input!$A173*100/_input!$B173))</f>
         <v>0</v>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C173" s="20">
-        <f>VALUE(IF(_input!$A174=0,0,_input!$A174*100/_input!$B174))</f>
+        <f>VALUE(IF(_input!$B174=0,0,_input!$A174*100/_input!$B174))</f>
         <v>0</v>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="C174" s="20">
-        <f>VALUE(IF(_input!$A175=0,0,_input!$A175*100/_input!$B175))</f>
+        <f>VALUE(IF(_input!$B175=0,0,_input!$A175*100/_input!$B175))</f>
         <v>0</v>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="C175" s="20">
-        <f>VALUE(IF(_input!$A176=0,0,_input!$A176*100/_input!$B176))</f>
+        <f>VALUE(IF(_input!$B176=0,0,_input!$A176*100/_input!$B176))</f>
         <v>0</v>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="20">
-        <f>VALUE(IF(_input!$A177=0,0,_input!$A177*100/_input!$B177))</f>
+        <f>VALUE(IF(_input!$B177=0,0,_input!$A177*100/_input!$B177))</f>
         <v>0</v>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="C177" s="20">
-        <f>VALUE(IF(_input!$A178=0,0,_input!$A178*100/_input!$B178))</f>
+        <f>VALUE(IF(_input!$B178=0,0,_input!$A178*100/_input!$B178))</f>
         <v>0</v>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="C178" s="20">
-        <f>VALUE(IF(_input!$A179=0,0,_input!$A179*100/_input!$B179))</f>
+        <f>VALUE(IF(_input!$B179=0,0,_input!$A179*100/_input!$B179))</f>
         <v>0</v>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="C179" s="20">
-        <f>VALUE(IF(_input!$A180=0,0,_input!$A180*100/_input!$B180))</f>
+        <f>VALUE(IF(_input!$B180=0,0,_input!$A180*100/_input!$B180))</f>
         <v>0</v>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="C180" s="20">
-        <f>VALUE(IF(_input!$A181=0,0,_input!$A181*100/_input!$B181))</f>
+        <f>VALUE(IF(_input!$B181=0,0,_input!$A181*100/_input!$B181))</f>
         <v>0</v>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="C181" s="20">
-        <f>VALUE(IF(_input!$A182=0,0,_input!$A182*100/_input!$B182))</f>
+        <f>VALUE(IF(_input!$B182=0,0,_input!$A182*100/_input!$B182))</f>
         <v>0</v>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="C182" s="20">
-        <f>VALUE(IF(_input!$A183=0,0,_input!$A183*100/_input!$B183))</f>
+        <f>VALUE(IF(_input!$B183=0,0,_input!$A183*100/_input!$B183))</f>
         <v>0</v>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="C183" s="20">
-        <f>VALUE(IF(_input!$A184=0,0,_input!$A184*100/_input!$B184))</f>
+        <f>VALUE(IF(_input!$B184=0,0,_input!$A184*100/_input!$B184))</f>
         <v>0</v>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="C184" s="20">
-        <f>VALUE(IF(_input!$A185=0,0,_input!$A185*100/_input!$B185))</f>
+        <f>VALUE(IF(_input!$B185=0,0,_input!$A185*100/_input!$B185))</f>
         <v>0</v>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="C185" s="20">
-        <f>VALUE(IF(_input!$A186=0,0,_input!$A186*100/_input!$B186))</f>
+        <f>VALUE(IF(_input!$B186=0,0,_input!$A186*100/_input!$B186))</f>
         <v>0</v>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="C186" s="20">
-        <f>VALUE(IF(_input!$A187=0,0,_input!$A187*100/_input!$B187))</f>
+        <f>VALUE(IF(_input!$B187=0,0,_input!$A187*100/_input!$B187))</f>
         <v>0</v>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="C187" s="20">
-        <f>VALUE(IF(_input!$A188=0,0,_input!$A188*100/_input!$B188))</f>
+        <f>VALUE(IF(_input!$B188=0,0,_input!$A188*100/_input!$B188))</f>
         <v>0</v>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="C188" s="20">
-        <f>VALUE(IF(_input!$A189=0,0,_input!$A189*100/_input!$B189))</f>
+        <f>VALUE(IF(_input!$B189=0,0,_input!$A189*100/_input!$B189))</f>
         <v>0</v>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="C189" s="20">
-        <f>VALUE(IF(_input!$A190=0,0,_input!$A190*100/_input!$B190))</f>
+        <f>VALUE(IF(_input!$B190=0,0,_input!$A190*100/_input!$B190))</f>
         <v>0</v>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="C190" s="20">
-        <f>VALUE(IF(_input!$A191=0,0,_input!$A191*100/_input!$B191))</f>
+        <f>VALUE(IF(_input!$B191=0,0,_input!$A191*100/_input!$B191))</f>
         <v>0</v>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="C191" s="20">
-        <f>VALUE(IF(_input!$A192=0,0,_input!$A192*100/_input!$B192))</f>
+        <f>VALUE(IF(_input!$B192=0,0,_input!$A192*100/_input!$B192))</f>
         <v>0</v>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="20">
-        <f>VALUE(IF(_input!$A193=0,0,_input!$A193*100/_input!$B193))</f>
+        <f>VALUE(IF(_input!$B193=0,0,_input!$A193*100/_input!$B193))</f>
         <v>0</v>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="C193" s="20">
-        <f>VALUE(IF(_input!$A194=0,0,_input!$A194*100/_input!$B194))</f>
+        <f>VALUE(IF(_input!$B194=0,0,_input!$A194*100/_input!$B194))</f>
         <v>0</v>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="C194" s="20">
-        <f>VALUE(IF(_input!$A195=0,0,_input!$A195*100/_input!$B195))</f>
+        <f>VALUE(IF(_input!$B195=0,0,_input!$A195*100/_input!$B195))</f>
         <v>0</v>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="C195" s="20">
-        <f>VALUE(IF(_input!$A196=0,0,_input!$A196*100/_input!$B196))</f>
+        <f>VALUE(IF(_input!$B196=0,0,_input!$A196*100/_input!$B196))</f>
         <v>0</v>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="C196" s="20">
-        <f>VALUE(IF(_input!$A197=0,0,_input!$A197*100/_input!$B197))</f>
+        <f>VALUE(IF(_input!$B197=0,0,_input!$A197*100/_input!$B197))</f>
         <v>0</v>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="C197" s="20">
-        <f>VALUE(IF(_input!$A198=0,0,_input!$A198*100/_input!$B198))</f>
+        <f>VALUE(IF(_input!$B198=0,0,_input!$A198*100/_input!$B198))</f>
         <v>0</v>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="C198" s="20">
-        <f>VALUE(IF(_input!$A199=0,0,_input!$A199*100/_input!$B199))</f>
+        <f>VALUE(IF(_input!$B199=0,0,_input!$A199*100/_input!$B199))</f>
         <v>0</v>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="C199" s="20">
-        <f>VALUE(IF(_input!$A200=0,0,_input!$A200*100/_input!$B200))</f>
+        <f>VALUE(IF(_input!$B200=0,0,_input!$A200*100/_input!$B200))</f>
         <v>0</v>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="C200" s="20">
-        <f>VALUE(IF(_input!$A201=0,0,_input!$A201*100/_input!$B201))</f>
+        <f>VALUE(IF(_input!$B201=0,0,_input!$A201*100/_input!$B201))</f>
         <v>0</v>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="C201" s="20">
-        <f>VALUE(IF(_input!$A202=0,0,_input!$A202*100/_input!$B202))</f>
+        <f>VALUE(IF(_input!$B202=0,0,_input!$A202*100/_input!$B202))</f>
         <v>0</v>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="C202" s="20">
-        <f>VALUE(IF(_input!$A203=0,0,_input!$A203*100/_input!$B203))</f>
+        <f>VALUE(IF(_input!$B203=0,0,_input!$A203*100/_input!$B203))</f>
         <v>0</v>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="C203" s="20">
-        <f>VALUE(IF(_input!$A204=0,0,_input!$A204*100/_input!$B204))</f>
+        <f>VALUE(IF(_input!$B204=0,0,_input!$A204*100/_input!$B204))</f>
         <v>0</v>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="C204" s="20">
-        <f>VALUE(IF(_input!$A205=0,0,_input!$A205*100/_input!$B205))</f>
+        <f>VALUE(IF(_input!$B205=0,0,_input!$A205*100/_input!$B205))</f>
         <v>0</v>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="C205" s="20">
-        <f>VALUE(IF(_input!$A206=0,0,_input!$A206*100/_input!$B206))</f>
+        <f>VALUE(IF(_input!$B206=0,0,_input!$A206*100/_input!$B206))</f>
         <v>0</v>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="C206" s="20">
-        <f>VALUE(IF(_input!$A207=0,0,_input!$A207*100/_input!$B207))</f>
+        <f>VALUE(IF(_input!$B207=0,0,_input!$A207*100/_input!$B207))</f>
         <v>0</v>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="C207" s="20">
-        <f>VALUE(IF(_input!$A208=0,0,_input!$A208*100/_input!$B208))</f>
+        <f>VALUE(IF(_input!$B208=0,0,_input!$A208*100/_input!$B208))</f>
         <v>0</v>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="C208" s="20">
-        <f>VALUE(IF(_input!$A209=0,0,_input!$A209*100/_input!$B209))</f>
+        <f>VALUE(IF(_input!$B209=0,0,_input!$A209*100/_input!$B209))</f>
         <v>0</v>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="C209" s="20">
-        <f>VALUE(IF(_input!$A210=0,0,_input!$A210*100/_input!$B210))</f>
+        <f>VALUE(IF(_input!$B210=0,0,_input!$A210*100/_input!$B210))</f>
         <v>0</v>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="C210" s="20">
-        <f>VALUE(IF(_input!$A211=0,0,_input!$A211*100/_input!$B211))</f>
+        <f>VALUE(IF(_input!$B211=0,0,_input!$A211*100/_input!$B211))</f>
         <v>0</v>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="C211" s="20">
-        <f>VALUE(IF(_input!$A212=0,0,_input!$A212*100/_input!$B212))</f>
+        <f>VALUE(IF(_input!$B212=0,0,_input!$A212*100/_input!$B212))</f>
         <v>0</v>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="C212" s="20">
-        <f>VALUE(IF(_input!$A213=0,0,_input!$A213*100/_input!$B213))</f>
+        <f>VALUE(IF(_input!$B213=0,0,_input!$A213*100/_input!$B213))</f>
         <v>0</v>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="C213" s="20">
-        <f>VALUE(IF(_input!$A214=0,0,_input!$A214*100/_input!$B214))</f>
+        <f>VALUE(IF(_input!$B214=0,0,_input!$A214*100/_input!$B214))</f>
         <v>0</v>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="C214" s="20">
-        <f>VALUE(IF(_input!$A215=0,0,_input!$A215*100/_input!$B215))</f>
+        <f>VALUE(IF(_input!$B215=0,0,_input!$A215*100/_input!$B215))</f>
         <v>0</v>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="C215" s="20">
-        <f>VALUE(IF(_input!$A216=0,0,_input!$A216*100/_input!$B216))</f>
+        <f>VALUE(IF(_input!$B216=0,0,_input!$A216*100/_input!$B216))</f>
         <v>0</v>
       </c>
     </row>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="C216" s="20">
-        <f>VALUE(IF(_input!$A217=0,0,_input!$A217*100/_input!$B217))</f>
+        <f>VALUE(IF(_input!$B217=0,0,_input!$A217*100/_input!$B217))</f>
         <v>0</v>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="C217" s="20">
-        <f>VALUE(IF(_input!$A218=0,0,_input!$A218*100/_input!$B218))</f>
+        <f>VALUE(IF(_input!$B218=0,0,_input!$A218*100/_input!$B218))</f>
         <v>0</v>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="C218" s="20">
-        <f>VALUE(IF(_input!$A219=0,0,_input!$A219*100/_input!$B219))</f>
+        <f>VALUE(IF(_input!$B219=0,0,_input!$A219*100/_input!$B219))</f>
         <v>0</v>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="C219" s="20">
-        <f>VALUE(IF(_input!$A220=0,0,_input!$A220*100/_input!$B220))</f>
+        <f>VALUE(IF(_input!$B220=0,0,_input!$A220*100/_input!$B220))</f>
         <v>0</v>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="C220" s="20">
-        <f>VALUE(IF(_input!$A221=0,0,_input!$A221*100/_input!$B221))</f>
+        <f>VALUE(IF(_input!$B221=0,0,_input!$A221*100/_input!$B221))</f>
         <v>0</v>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="C221" s="20">
-        <f>VALUE(IF(_input!$A222=0,0,_input!$A222*100/_input!$B222))</f>
+        <f>VALUE(IF(_input!$B222=0,0,_input!$A222*100/_input!$B222))</f>
         <v>0</v>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="C222" s="20">
-        <f>VALUE(IF(_input!$A223=0,0,_input!$A223*100/_input!$B223))</f>
+        <f>VALUE(IF(_input!$B223=0,0,_input!$A223*100/_input!$B223))</f>
         <v>0</v>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="C223" s="20">
-        <f>VALUE(IF(_input!$A224=0,0,_input!$A224*100/_input!$B224))</f>
+        <f>VALUE(IF(_input!$B224=0,0,_input!$A224*100/_input!$B224))</f>
         <v>0</v>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="C224" s="20">
-        <f>VALUE(IF(_input!$A225=0,0,_input!$A225*100/_input!$B225))</f>
+        <f>VALUE(IF(_input!$B225=0,0,_input!$A225*100/_input!$B225))</f>
         <v>0</v>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="C225" s="20">
-        <f>VALUE(IF(_input!$A226=0,0,_input!$A226*100/_input!$B226))</f>
+        <f>VALUE(IF(_input!$B226=0,0,_input!$A226*100/_input!$B226))</f>
         <v>0</v>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="C226" s="20">
-        <f>VALUE(IF(_input!$A227=0,0,_input!$A227*100/_input!$B227))</f>
+        <f>VALUE(IF(_input!$B227=0,0,_input!$A227*100/_input!$B227))</f>
         <v>0</v>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="C227" s="20">
-        <f>VALUE(IF(_input!$A228=0,0,_input!$A228*100/_input!$B228))</f>
+        <f>VALUE(IF(_input!$B228=0,0,_input!$A228*100/_input!$B228))</f>
         <v>0</v>
       </c>
     </row>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="C228" s="20">
-        <f>VALUE(IF(_input!$A229=0,0,_input!$A229*100/_input!$B229))</f>
+        <f>VALUE(IF(_input!$B229=0,0,_input!$A229*100/_input!$B229))</f>
         <v>0</v>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="C229" s="20">
-        <f>VALUE(IF(_input!$A230=0,0,_input!$A230*100/_input!$B230))</f>
+        <f>VALUE(IF(_input!$B230=0,0,_input!$A230*100/_input!$B230))</f>
         <v>0</v>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="C230" s="20">
-        <f>VALUE(IF(_input!$A231=0,0,_input!$A231*100/_input!$B231))</f>
+        <f>VALUE(IF(_input!$B231=0,0,_input!$A231*100/_input!$B231))</f>
         <v>0</v>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="C231" s="20">
-        <f>VALUE(IF(_input!$A232=0,0,_input!$A232*100/_input!$B232))</f>
+        <f>VALUE(IF(_input!$B232=0,0,_input!$A232*100/_input!$B232))</f>
         <v>0</v>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="C232" s="20">
-        <f>VALUE(IF(_input!$A233=0,0,_input!$A233*100/_input!$B233))</f>
+        <f>VALUE(IF(_input!$B233=0,0,_input!$A233*100/_input!$B233))</f>
         <v>0</v>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="C233" s="20">
-        <f>VALUE(IF(_input!$A234=0,0,_input!$A234*100/_input!$B234))</f>
+        <f>VALUE(IF(_input!$B234=0,0,_input!$A234*100/_input!$B234))</f>
         <v>0</v>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="C234" s="20">
-        <f>VALUE(IF(_input!$A235=0,0,_input!$A235*100/_input!$B235))</f>
+        <f>VALUE(IF(_input!$B235=0,0,_input!$A235*100/_input!$B235))</f>
         <v>0</v>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="C235" s="20">
-        <f>VALUE(IF(_input!$A236=0,0,_input!$A236*100/_input!$B236))</f>
+        <f>VALUE(IF(_input!$B236=0,0,_input!$A236*100/_input!$B236))</f>
         <v>0</v>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="C236" s="20">
-        <f>VALUE(IF(_input!$A237=0,0,_input!$A237*100/_input!$B237))</f>
+        <f>VALUE(IF(_input!$B237=0,0,_input!$A237*100/_input!$B237))</f>
         <v>0</v>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="C237" s="20">
-        <f>VALUE(IF(_input!$A238=0,0,_input!$A238*100/_input!$B238))</f>
+        <f>VALUE(IF(_input!$B238=0,0,_input!$A238*100/_input!$B238))</f>
         <v>0</v>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="C238" s="20">
-        <f>VALUE(IF(_input!$A239=0,0,_input!$A239*100/_input!$B239))</f>
+        <f>VALUE(IF(_input!$B239=0,0,_input!$A239*100/_input!$B239))</f>
         <v>0</v>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="C239" s="20">
-        <f>VALUE(IF(_input!$A240=0,0,_input!$A240*100/_input!$B240))</f>
+        <f>VALUE(IF(_input!$B240=0,0,_input!$A240*100/_input!$B240))</f>
         <v>0</v>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="C240" s="20">
-        <f>VALUE(IF(_input!$A241=0,0,_input!$A241*100/_input!$B241))</f>
+        <f>VALUE(IF(_input!$B241=0,0,_input!$A241*100/_input!$B241))</f>
         <v>0</v>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="C241" s="20">
-        <f>VALUE(IF(_input!$A242=0,0,_input!$A242*100/_input!$B242))</f>
+        <f>VALUE(IF(_input!$B242=0,0,_input!$A242*100/_input!$B242))</f>
         <v>0</v>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="C242" s="20">
-        <f>VALUE(IF(_input!$A243=0,0,_input!$A243*100/_input!$B243))</f>
+        <f>VALUE(IF(_input!$B243=0,0,_input!$A243*100/_input!$B243))</f>
         <v>0</v>
       </c>
     </row>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="C243" s="20">
-        <f>VALUE(IF(_input!$A244=0,0,_input!$A244*100/_input!$B244))</f>
+        <f>VALUE(IF(_input!$B244=0,0,_input!$A244*100/_input!$B244))</f>
         <v>0</v>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="C244" s="20">
-        <f>VALUE(IF(_input!$A245=0,0,_input!$A245*100/_input!$B245))</f>
+        <f>VALUE(IF(_input!$B245=0,0,_input!$A245*100/_input!$B245))</f>
         <v>0</v>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="C245" s="20">
-        <f>VALUE(IF(_input!$A246=0,0,_input!$A246*100/_input!$B246))</f>
+        <f>VALUE(IF(_input!$B246=0,0,_input!$A246*100/_input!$B246))</f>
         <v>0</v>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="C246" s="20">
-        <f>VALUE(IF(_input!$A247=0,0,_input!$A247*100/_input!$B247))</f>
+        <f>VALUE(IF(_input!$B247=0,0,_input!$A247*100/_input!$B247))</f>
         <v>0</v>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="C247" s="20">
-        <f>VALUE(IF(_input!$A248=0,0,_input!$A248*100/_input!$B248))</f>
+        <f>VALUE(IF(_input!$B248=0,0,_input!$A248*100/_input!$B248))</f>
         <v>0</v>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="C248" s="20">
-        <f>VALUE(IF(_input!$A249=0,0,_input!$A249*100/_input!$B249))</f>
+        <f>VALUE(IF(_input!$B249=0,0,_input!$A249*100/_input!$B249))</f>
         <v>0</v>
       </c>
     </row>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="C249" s="20">
-        <f>VALUE(IF(_input!$A250=0,0,_input!$A250*100/_input!$B250))</f>
+        <f>VALUE(IF(_input!$B250=0,0,_input!$A250*100/_input!$B250))</f>
         <v>0</v>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="C250" s="20">
-        <f>VALUE(IF(_input!$A251=0,0,_input!$A251*100/_input!$B251))</f>
+        <f>VALUE(IF(_input!$B251=0,0,_input!$A251*100/_input!$B251))</f>
         <v>0</v>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="C251" s="20">
-        <f>VALUE(IF(_input!$A252=0,0,_input!$A252*100/_input!$B252))</f>
+        <f>VALUE(IF(_input!$B252=0,0,_input!$A252*100/_input!$B252))</f>
         <v>0</v>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="C252" s="20">
-        <f>VALUE(IF(_input!$A253=0,0,_input!$A253*100/_input!$B253))</f>
+        <f>VALUE(IF(_input!$B253=0,0,_input!$A253*100/_input!$B253))</f>
         <v>0</v>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="C253" s="20">
-        <f>VALUE(IF(_input!$A254=0,0,_input!$A254*100/_input!$B254))</f>
+        <f>VALUE(IF(_input!$B254=0,0,_input!$A254*100/_input!$B254))</f>
         <v>0</v>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="C254" s="20">
-        <f>VALUE(IF(_input!$A255=0,0,_input!$A255*100/_input!$B255))</f>
+        <f>VALUE(IF(_input!$B255=0,0,_input!$A255*100/_input!$B255))</f>
         <v>0</v>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="C255" s="20">
-        <f>VALUE(IF(_input!$A256=0,0,_input!$A256*100/_input!$B256))</f>
+        <f>VALUE(IF(_input!$B256=0,0,_input!$A256*100/_input!$B256))</f>
         <v>0</v>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="C256" s="20">
-        <f>VALUE(IF(_input!$A257=0,0,_input!$A257*100/_input!$B257))</f>
+        <f>VALUE(IF(_input!$B257=0,0,_input!$A257*100/_input!$B257))</f>
         <v>0</v>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="C257" s="20">
-        <f>VALUE(IF(_input!$A258=0,0,_input!$A258*100/_input!$B258))</f>
+        <f>VALUE(IF(_input!$B258=0,0,_input!$A258*100/_input!$B258))</f>
         <v>0</v>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="C258" s="20">
-        <f>VALUE(IF(_input!$A259=0,0,_input!$A259*100/_input!$B259))</f>
+        <f>VALUE(IF(_input!$B259=0,0,_input!$A259*100/_input!$B259))</f>
         <v>0</v>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="C259" s="20">
-        <f>VALUE(IF(_input!$A260=0,0,_input!$A260*100/_input!$B260))</f>
+        <f>VALUE(IF(_input!$B260=0,0,_input!$A260*100/_input!$B260))</f>
         <v>0</v>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="C260" s="20">
-        <f>VALUE(IF(_input!$A261=0,0,_input!$A261*100/_input!$B261))</f>
+        <f>VALUE(IF(_input!$B261=0,0,_input!$A261*100/_input!$B261))</f>
         <v>0</v>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="C261" s="20">
-        <f>VALUE(IF(_input!$A262=0,0,_input!$A262*100/_input!$B262))</f>
+        <f>VALUE(IF(_input!$B262=0,0,_input!$A262*100/_input!$B262))</f>
         <v>0</v>
       </c>
     </row>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="C262" s="20">
-        <f>VALUE(IF(_input!$A263=0,0,_input!$A263*100/_input!$B263))</f>
+        <f>VALUE(IF(_input!$B263=0,0,_input!$A263*100/_input!$B263))</f>
         <v>0</v>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="C263" s="20">
-        <f>VALUE(IF(_input!$A264=0,0,_input!$A264*100/_input!$B264))</f>
+        <f>VALUE(IF(_input!$B264=0,0,_input!$A264*100/_input!$B264))</f>
         <v>0</v>
       </c>
     </row>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="C264" s="20">
-        <f>VALUE(IF(_input!$A265=0,0,_input!$A265*100/_input!$B265))</f>
+        <f>VALUE(IF(_input!$B265=0,0,_input!$A265*100/_input!$B265))</f>
         <v>0</v>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="C265" s="20">
-        <f>VALUE(IF(_input!$A266=0,0,_input!$A266*100/_input!$B266))</f>
+        <f>VALUE(IF(_input!$B266=0,0,_input!$A266*100/_input!$B266))</f>
         <v>0</v>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="C266" s="20">
-        <f>VALUE(IF(_input!$A267=0,0,_input!$A267*100/_input!$B267))</f>
+        <f>VALUE(IF(_input!$B267=0,0,_input!$A267*100/_input!$B267))</f>
         <v>0</v>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="C267" s="20">
-        <f>VALUE(IF(_input!$A268=0,0,_input!$A268*100/_input!$B268))</f>
+        <f>VALUE(IF(_input!$B268=0,0,_input!$A268*100/_input!$B268))</f>
         <v>0</v>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="C268" s="20">
-        <f>VALUE(IF(_input!$A269=0,0,_input!$A269*100/_input!$B269))</f>
+        <f>VALUE(IF(_input!$B269=0,0,_input!$A269*100/_input!$B269))</f>
         <v>0</v>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="C269" s="20">
-        <f>VALUE(IF(_input!$A270=0,0,_input!$A270*100/_input!$B270))</f>
+        <f>VALUE(IF(_input!$B270=0,0,_input!$A270*100/_input!$B270))</f>
         <v>0</v>
       </c>
     </row>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="C270" s="20">
-        <f>VALUE(IF(_input!$A271=0,0,_input!$A271*100/_input!$B271))</f>
+        <f>VALUE(IF(_input!$B271=0,0,_input!$A271*100/_input!$B271))</f>
         <v>0</v>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="C271" s="20">
-        <f>VALUE(IF(_input!$A272=0,0,_input!$A272*100/_input!$B272))</f>
+        <f>VALUE(IF(_input!$B272=0,0,_input!$A272*100/_input!$B272))</f>
         <v>0</v>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="C272" s="20">
-        <f>VALUE(IF(_input!$A273=0,0,_input!$A273*100/_input!$B273))</f>
+        <f>VALUE(IF(_input!$B273=0,0,_input!$A273*100/_input!$B273))</f>
         <v>0</v>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="C273" s="20">
-        <f>VALUE(IF(_input!$A274=0,0,_input!$A274*100/_input!$B274))</f>
+        <f>VALUE(IF(_input!$B274=0,0,_input!$A274*100/_input!$B274))</f>
         <v>0</v>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="C274" s="20">
-        <f>VALUE(IF(_input!$A275=0,0,_input!$A275*100/_input!$B275))</f>
+        <f>VALUE(IF(_input!$B275=0,0,_input!$A275*100/_input!$B275))</f>
         <v>0</v>
       </c>
     </row>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="C275" s="20">
-        <f>VALUE(IF(_input!$A276=0,0,_input!$A276*100/_input!$B276))</f>
+        <f>VALUE(IF(_input!$B276=0,0,_input!$A276*100/_input!$B276))</f>
         <v>0</v>
       </c>
     </row>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="C276" s="20">
-        <f>VALUE(IF(_input!$A277=0,0,_input!$A277*100/_input!$B277))</f>
+        <f>VALUE(IF(_input!$B277=0,0,_input!$A277*100/_input!$B277))</f>
         <v>0</v>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="C277" s="20">
-        <f>VALUE(IF(_input!$A278=0,0,_input!$A278*100/_input!$B278))</f>
+        <f>VALUE(IF(_input!$B278=0,0,_input!$A278*100/_input!$B278))</f>
         <v>0</v>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="C278" s="20">
-        <f>VALUE(IF(_input!$A279=0,0,_input!$A279*100/_input!$B279))</f>
+        <f>VALUE(IF(_input!$B279=0,0,_input!$A279*100/_input!$B279))</f>
         <v>0</v>
       </c>
     </row>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="C279" s="20">
-        <f>VALUE(IF(_input!$A280=0,0,_input!$A280*100/_input!$B280))</f>
+        <f>VALUE(IF(_input!$B280=0,0,_input!$A280*100/_input!$B280))</f>
         <v>0</v>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="C280" s="20">
-        <f>VALUE(IF(_input!$A281=0,0,_input!$A281*100/_input!$B281))</f>
+        <f>VALUE(IF(_input!$B281=0,0,_input!$A281*100/_input!$B281))</f>
         <v>0</v>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="C281" s="20">
-        <f>VALUE(IF(_input!$A282=0,0,_input!$A282*100/_input!$B282))</f>
+        <f>VALUE(IF(_input!$B282=0,0,_input!$A282*100/_input!$B282))</f>
         <v>0</v>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="C282" s="20">
-        <f>VALUE(IF(_input!$A283=0,0,_input!$A283*100/_input!$B283))</f>
+        <f>VALUE(IF(_input!$B283=0,0,_input!$A283*100/_input!$B283))</f>
         <v>0</v>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="C283" s="20">
-        <f>VALUE(IF(_input!$A284=0,0,_input!$A284*100/_input!$B284))</f>
+        <f>VALUE(IF(_input!$B284=0,0,_input!$A284*100/_input!$B284))</f>
         <v>0</v>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="C284" s="20">
-        <f>VALUE(IF(_input!$A285=0,0,_input!$A285*100/_input!$B285))</f>
+        <f>VALUE(IF(_input!$B285=0,0,_input!$A285*100/_input!$B285))</f>
         <v>0</v>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="C285" s="20">
-        <f>VALUE(IF(_input!$A286=0,0,_input!$A286*100/_input!$B286))</f>
+        <f>VALUE(IF(_input!$B286=0,0,_input!$A286*100/_input!$B286))</f>
         <v>0</v>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="C286" s="20">
-        <f>VALUE(IF(_input!$A287=0,0,_input!$A287*100/_input!$B287))</f>
+        <f>VALUE(IF(_input!$B287=0,0,_input!$A287*100/_input!$B287))</f>
         <v>0</v>
       </c>
     </row>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="C287" s="20">
-        <f>VALUE(IF(_input!$A288=0,0,_input!$A288*100/_input!$B288))</f>
+        <f>VALUE(IF(_input!$B288=0,0,_input!$A288*100/_input!$B288))</f>
         <v>0</v>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="C288" s="20">
-        <f>VALUE(IF(_input!$A289=0,0,_input!$A289*100/_input!$B289))</f>
+        <f>VALUE(IF(_input!$B289=0,0,_input!$A289*100/_input!$B289))</f>
         <v>0</v>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="C289" s="20">
-        <f>VALUE(IF(_input!$A290=0,0,_input!$A290*100/_input!$B290))</f>
+        <f>VALUE(IF(_input!$B290=0,0,_input!$A290*100/_input!$B290))</f>
         <v>0</v>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="C290" s="20">
-        <f>VALUE(IF(_input!$A291=0,0,_input!$A291*100/_input!$B291))</f>
+        <f>VALUE(IF(_input!$B291=0,0,_input!$A291*100/_input!$B291))</f>
         <v>0</v>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="C291" s="20">
-        <f>VALUE(IF(_input!$A292=0,0,_input!$A292*100/_input!$B292))</f>
+        <f>VALUE(IF(_input!$B292=0,0,_input!$A292*100/_input!$B292))</f>
         <v>0</v>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="C292" s="20">
-        <f>VALUE(IF(_input!$A293=0,0,_input!$A293*100/_input!$B293))</f>
+        <f>VALUE(IF(_input!$B293=0,0,_input!$A293*100/_input!$B293))</f>
         <v>0</v>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="C293" s="20">
-        <f>VALUE(IF(_input!$A294=0,0,_input!$A294*100/_input!$B294))</f>
+        <f>VALUE(IF(_input!$B294=0,0,_input!$A294*100/_input!$B294))</f>
         <v>0</v>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="C294" s="20">
-        <f>VALUE(IF(_input!$A295=0,0,_input!$A295*100/_input!$B295))</f>
+        <f>VALUE(IF(_input!$B295=0,0,_input!$A295*100/_input!$B295))</f>
         <v>0</v>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="C295" s="20">
-        <f>VALUE(IF(_input!$A296=0,0,_input!$A296*100/_input!$B296))</f>
+        <f>VALUE(IF(_input!$B296=0,0,_input!$A296*100/_input!$B296))</f>
         <v>0</v>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="C296" s="20">
-        <f>VALUE(IF(_input!$A297=0,0,_input!$A297*100/_input!$B297))</f>
+        <f>VALUE(IF(_input!$B297=0,0,_input!$A297*100/_input!$B297))</f>
         <v>0</v>
       </c>
     </row>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="C297" s="20">
-        <f>VALUE(IF(_input!$A298=0,0,_input!$A298*100/_input!$B298))</f>
+        <f>VALUE(IF(_input!$B298=0,0,_input!$A298*100/_input!$B298))</f>
         <v>0</v>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="C298" s="20">
-        <f>VALUE(IF(_input!$A299=0,0,_input!$A299*100/_input!$B299))</f>
+        <f>VALUE(IF(_input!$B299=0,0,_input!$A299*100/_input!$B299))</f>
         <v>0</v>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="C299" s="20">
-        <f>VALUE(IF(_input!$A300=0,0,_input!$A300*100/_input!$B300))</f>
+        <f>VALUE(IF(_input!$B300=0,0,_input!$A300*100/_input!$B300))</f>
         <v>0</v>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="C300" s="20">
-        <f>VALUE(IF(_input!$A301=0,0,_input!$A301*100/_input!$B301))</f>
+        <f>VALUE(IF(_input!$B301=0,0,_input!$A301*100/_input!$B301))</f>
         <v>0</v>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="C301" s="20">
-        <f>VALUE(IF(_input!$A302=0,0,_input!$A302*100/_input!$B302))</f>
+        <f>VALUE(IF(_input!$B302=0,0,_input!$A302*100/_input!$B302))</f>
         <v>0</v>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="C302" s="20">
-        <f>VALUE(IF(_input!$A303=0,0,_input!$A303*100/_input!$B303))</f>
+        <f>VALUE(IF(_input!$B303=0,0,_input!$A303*100/_input!$B303))</f>
         <v>0</v>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="C303" s="20">
-        <f>VALUE(IF(_input!$A304=0,0,_input!$A304*100/_input!$B304))</f>
+        <f>VALUE(IF(_input!$B304=0,0,_input!$A304*100/_input!$B304))</f>
         <v>0</v>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="C304" s="20">
-        <f>VALUE(IF(_input!$A305=0,0,_input!$A305*100/_input!$B305))</f>
+        <f>VALUE(IF(_input!$B305=0,0,_input!$A305*100/_input!$B305))</f>
         <v>0</v>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="C305" s="20">
-        <f>VALUE(IF(_input!$A306=0,0,_input!$A306*100/_input!$B306))</f>
+        <f>VALUE(IF(_input!$B306=0,0,_input!$A306*100/_input!$B306))</f>
         <v>0</v>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="C306" s="20">
-        <f>VALUE(IF(_input!$A307=0,0,_input!$A307*100/_input!$B307))</f>
+        <f>VALUE(IF(_input!$B307=0,0,_input!$A307*100/_input!$B307))</f>
         <v>0</v>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="C307" s="20">
-        <f>VALUE(IF(_input!$A308=0,0,_input!$A308*100/_input!$B308))</f>
+        <f>VALUE(IF(_input!$B308=0,0,_input!$A308*100/_input!$B308))</f>
         <v>0</v>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="C308" s="20">
-        <f>VALUE(IF(_input!$A309=0,0,_input!$A309*100/_input!$B309))</f>
+        <f>VALUE(IF(_input!$B309=0,0,_input!$A309*100/_input!$B309))</f>
         <v>0</v>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="C309" s="20">
-        <f>VALUE(IF(_input!$A310=0,0,_input!$A310*100/_input!$B310))</f>
+        <f>VALUE(IF(_input!$B310=0,0,_input!$A310*100/_input!$B310))</f>
         <v>0</v>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="C310" s="20">
-        <f>VALUE(IF(_input!$A311=0,0,_input!$A311*100/_input!$B311))</f>
+        <f>VALUE(IF(_input!$B311=0,0,_input!$A311*100/_input!$B311))</f>
         <v>0</v>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="C311" s="20">
-        <f>VALUE(IF(_input!$A312=0,0,_input!$A312*100/_input!$B312))</f>
+        <f>VALUE(IF(_input!$B312=0,0,_input!$A312*100/_input!$B312))</f>
         <v>0</v>
       </c>
     </row>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="C312" s="20">
-        <f>VALUE(IF(_input!$A313=0,0,_input!$A313*100/_input!$B313))</f>
+        <f>VALUE(IF(_input!$B313=0,0,_input!$A313*100/_input!$B313))</f>
         <v>0</v>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="C313" s="20">
-        <f>VALUE(IF(_input!$A314=0,0,_input!$A314*100/_input!$B314))</f>
+        <f>VALUE(IF(_input!$B314=0,0,_input!$A314*100/_input!$B314))</f>
         <v>0</v>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="C314" s="20">
-        <f>VALUE(IF(_input!$A315=0,0,_input!$A315*100/_input!$B315))</f>
+        <f>VALUE(IF(_input!$B315=0,0,_input!$A315*100/_input!$B315))</f>
         <v>0</v>
       </c>
     </row>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="C315" s="20">
-        <f>VALUE(IF(_input!$A316=0,0,_input!$A316*100/_input!$B316))</f>
+        <f>VALUE(IF(_input!$B316=0,0,_input!$A316*100/_input!$B316))</f>
         <v>0</v>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="C316" s="20">
-        <f>VALUE(IF(_input!$A317=0,0,_input!$A317*100/_input!$B317))</f>
+        <f>VALUE(IF(_input!$B317=0,0,_input!$A317*100/_input!$B317))</f>
         <v>0</v>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="C317" s="20">
-        <f>VALUE(IF(_input!$A318=0,0,_input!$A318*100/_input!$B318))</f>
+        <f>VALUE(IF(_input!$B318=0,0,_input!$A318*100/_input!$B318))</f>
         <v>0</v>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="C318" s="20">
-        <f>VALUE(IF(_input!$A319=0,0,_input!$A319*100/_input!$B319))</f>
+        <f>VALUE(IF(_input!$B319=0,0,_input!$A319*100/_input!$B319))</f>
         <v>0</v>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C319" s="20">
-        <f>VALUE(IF(_input!$A320=0,0,_input!$A320*100/_input!$B320))</f>
+        <f>VALUE(IF(_input!$B320=0,0,_input!$A320*100/_input!$B320))</f>
         <v>0</v>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="C320" s="20">
-        <f>VALUE(IF(_input!$A321=0,0,_input!$A321*100/_input!$B321))</f>
+        <f>VALUE(IF(_input!$B321=0,0,_input!$A321*100/_input!$B321))</f>
         <v>0</v>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="C321" s="20">
-        <f>VALUE(IF(_input!$A322=0,0,_input!$A322*100/_input!$B322))</f>
+        <f>VALUE(IF(_input!$B322=0,0,_input!$A322*100/_input!$B322))</f>
         <v>0</v>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="C322" s="20">
-        <f>VALUE(IF(_input!$A323=0,0,_input!$A323*100/_input!$B323))</f>
+        <f>VALUE(IF(_input!$B323=0,0,_input!$A323*100/_input!$B323))</f>
         <v>0</v>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="C323" s="20">
-        <f>VALUE(IF(_input!$A324=0,0,_input!$A324*100/_input!$B324))</f>
+        <f>VALUE(IF(_input!$B324=0,0,_input!$A324*100/_input!$B324))</f>
         <v>0</v>
       </c>
     </row>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="C324" s="20">
-        <f>VALUE(IF(_input!$A325=0,0,_input!$A325*100/_input!$B325))</f>
+        <f>VALUE(IF(_input!$B325=0,0,_input!$A325*100/_input!$B325))</f>
         <v>0</v>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="C325" s="20">
-        <f>VALUE(IF(_input!$A326=0,0,_input!$A326*100/_input!$B326))</f>
+        <f>VALUE(IF(_input!$B326=0,0,_input!$A326*100/_input!$B326))</f>
         <v>0</v>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="C326" s="20">
-        <f>VALUE(IF(_input!$A327=0,0,_input!$A327*100/_input!$B327))</f>
+        <f>VALUE(IF(_input!$B327=0,0,_input!$A327*100/_input!$B327))</f>
         <v>0</v>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="C327" s="20">
-        <f>VALUE(IF(_input!$A328=0,0,_input!$A328*100/_input!$B328))</f>
+        <f>VALUE(IF(_input!$B328=0,0,_input!$A328*100/_input!$B328))</f>
         <v>0</v>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="C328" s="20">
-        <f>VALUE(IF(_input!$A329=0,0,_input!$A329*100/_input!$B329))</f>
+        <f>VALUE(IF(_input!$B329=0,0,_input!$A329*100/_input!$B329))</f>
         <v>0</v>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="C329" s="20">
-        <f>VALUE(IF(_input!$A330=0,0,_input!$A330*100/_input!$B330))</f>
+        <f>VALUE(IF(_input!$B330=0,0,_input!$A330*100/_input!$B330))</f>
         <v>0</v>
       </c>
     </row>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="C330" s="20">
-        <f>VALUE(IF(_input!$A331=0,0,_input!$A331*100/_input!$B331))</f>
+        <f>VALUE(IF(_input!$B331=0,0,_input!$A331*100/_input!$B331))</f>
         <v>0</v>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C331" s="20">
-        <f>VALUE(IF(_input!$A332=0,0,_input!$A332*100/_input!$B332))</f>
+        <f>VALUE(IF(_input!$B332=0,0,_input!$A332*100/_input!$B332))</f>
         <v>0</v>
       </c>
     </row>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="C332" s="20">
-        <f>VALUE(IF(_input!$A333=0,0,_input!$A333*100/_input!$B333))</f>
+        <f>VALUE(IF(_input!$B333=0,0,_input!$A333*100/_input!$B333))</f>
         <v>0</v>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="C333" s="20">
-        <f>VALUE(IF(_input!$A334=0,0,_input!$A334*100/_input!$B334))</f>
+        <f>VALUE(IF(_input!$B334=0,0,_input!$A334*100/_input!$B334))</f>
         <v>0</v>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="C334" s="20">
-        <f>VALUE(IF(_input!$A335=0,0,_input!$A335*100/_input!$B335))</f>
+        <f>VALUE(IF(_input!$B335=0,0,_input!$A335*100/_input!$B335))</f>
         <v>0</v>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="C335" s="20">
-        <f>VALUE(IF(_input!$A336=0,0,_input!$A336*100/_input!$B336))</f>
+        <f>VALUE(IF(_input!$B336=0,0,_input!$A336*100/_input!$B336))</f>
         <v>0</v>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="C336" s="20">
-        <f>VALUE(IF(_input!$A337=0,0,_input!$A337*100/_input!$B337))</f>
+        <f>VALUE(IF(_input!$B337=0,0,_input!$A337*100/_input!$B337))</f>
         <v>0</v>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="C337" s="20">
-        <f>VALUE(IF(_input!$A338=0,0,_input!$A338*100/_input!$B338))</f>
+        <f>VALUE(IF(_input!$B338=0,0,_input!$A338*100/_input!$B338))</f>
         <v>0</v>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="C338" s="20">
-        <f>VALUE(IF(_input!$A339=0,0,_input!$A339*100/_input!$B339))</f>
+        <f>VALUE(IF(_input!$B339=0,0,_input!$A339*100/_input!$B339))</f>
         <v>0</v>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="C339" s="20">
-        <f>VALUE(IF(_input!$A340=0,0,_input!$A340*100/_input!$B340))</f>
+        <f>VALUE(IF(_input!$B340=0,0,_input!$A340*100/_input!$B340))</f>
         <v>0</v>
       </c>
     </row>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="C340" s="20">
-        <f>VALUE(IF(_input!$A341=0,0,_input!$A341*100/_input!$B341))</f>
+        <f>VALUE(IF(_input!$B341=0,0,_input!$A341*100/_input!$B341))</f>
         <v>0</v>
       </c>
     </row>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="C341" s="20">
-        <f>VALUE(IF(_input!$A342=0,0,_input!$A342*100/_input!$B342))</f>
+        <f>VALUE(IF(_input!$B342=0,0,_input!$A342*100/_input!$B342))</f>
         <v>0</v>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="C342" s="20">
-        <f>VALUE(IF(_input!$A343=0,0,_input!$A343*100/_input!$B343))</f>
+        <f>VALUE(IF(_input!$B343=0,0,_input!$A343*100/_input!$B343))</f>
         <v>0</v>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="C343" s="20">
-        <f>VALUE(IF(_input!$A344=0,0,_input!$A344*100/_input!$B344))</f>
+        <f>VALUE(IF(_input!$B344=0,0,_input!$A344*100/_input!$B344))</f>
         <v>0</v>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="C344" s="20">
-        <f>VALUE(IF(_input!$A345=0,0,_input!$A345*100/_input!$B345))</f>
+        <f>VALUE(IF(_input!$B345=0,0,_input!$A345*100/_input!$B345))</f>
         <v>0</v>
       </c>
     </row>
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="C345" s="20">
-        <f>VALUE(IF(_input!$A346=0,0,_input!$A346*100/_input!$B346))</f>
+        <f>VALUE(IF(_input!$B346=0,0,_input!$A346*100/_input!$B346))</f>
         <v>0</v>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="C346" s="20">
-        <f>VALUE(IF(_input!$A347=0,0,_input!$A347*100/_input!$B347))</f>
+        <f>VALUE(IF(_input!$B347=0,0,_input!$A347*100/_input!$B347))</f>
         <v>0</v>
       </c>
     </row>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="C347" s="20">
-        <f>VALUE(IF(_input!$A348=0,0,_input!$A348*100/_input!$B348))</f>
+        <f>VALUE(IF(_input!$B348=0,0,_input!$A348*100/_input!$B348))</f>
         <v>0</v>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="C348" s="20">
-        <f>VALUE(IF(_input!$A349=0,0,_input!$A349*100/_input!$B349))</f>
+        <f>VALUE(IF(_input!$B349=0,0,_input!$A349*100/_input!$B349))</f>
         <v>0</v>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="C349" s="20">
-        <f>VALUE(IF(_input!$A350=0,0,_input!$A350*100/_input!$B350))</f>
+        <f>VALUE(IF(_input!$B350=0,0,_input!$A350*100/_input!$B350))</f>
         <v>0</v>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="C350" s="20">
-        <f>VALUE(IF(_input!$A351=0,0,_input!$A351*100/_input!$B351))</f>
+        <f>VALUE(IF(_input!$B351=0,0,_input!$A351*100/_input!$B351))</f>
         <v>0</v>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="C351" s="20">
-        <f>VALUE(IF(_input!$A352=0,0,_input!$A352*100/_input!$B352))</f>
+        <f>VALUE(IF(_input!$B352=0,0,_input!$A352*100/_input!$B352))</f>
         <v>0</v>
       </c>
     </row>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="C352" s="20">
-        <f>VALUE(IF(_input!$A353=0,0,_input!$A353*100/_input!$B353))</f>
+        <f>VALUE(IF(_input!$B353=0,0,_input!$A353*100/_input!$B353))</f>
         <v>0</v>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="C353" s="20">
-        <f>VALUE(IF(_input!$A354=0,0,_input!$A354*100/_input!$B354))</f>
+        <f>VALUE(IF(_input!$B354=0,0,_input!$A354*100/_input!$B354))</f>
         <v>0</v>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="C354" s="20">
-        <f>VALUE(IF(_input!$A355=0,0,_input!$A355*100/_input!$B355))</f>
+        <f>VALUE(IF(_input!$B355=0,0,_input!$A355*100/_input!$B355))</f>
         <v>0</v>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="C355" s="20">
-        <f>VALUE(IF(_input!$A356=0,0,_input!$A356*100/_input!$B356))</f>
+        <f>VALUE(IF(_input!$B356=0,0,_input!$A356*100/_input!$B356))</f>
         <v>0</v>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="C356" s="20">
-        <f>VALUE(IF(_input!$A357=0,0,_input!$A357*100/_input!$B357))</f>
+        <f>VALUE(IF(_input!$B357=0,0,_input!$A357*100/_input!$B357))</f>
         <v>0</v>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="C357" s="20">
-        <f>VALUE(IF(_input!$A358=0,0,_input!$A358*100/_input!$B358))</f>
+        <f>VALUE(IF(_input!$B358=0,0,_input!$A358*100/_input!$B358))</f>
         <v>0</v>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="C358" s="20">
-        <f>VALUE(IF(_input!$A359=0,0,_input!$A359*100/_input!$B359))</f>
+        <f>VALUE(IF(_input!$B359=0,0,_input!$A359*100/_input!$B359))</f>
         <v>0</v>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="C359" s="20">
-        <f>VALUE(IF(_input!$A360=0,0,_input!$A360*100/_input!$B360))</f>
+        <f>VALUE(IF(_input!$B360=0,0,_input!$A360*100/_input!$B360))</f>
         <v>0</v>
       </c>
     </row>
@@ -6439,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="C360" s="20">
-        <f>VALUE(IF(_input!$A361=0,0,_input!$A361*100/_input!$B361))</f>
+        <f>VALUE(IF(_input!$B361=0,0,_input!$A361*100/_input!$B361))</f>
         <v>0</v>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="C361" s="20">
-        <f>VALUE(IF(_input!$A362=0,0,_input!$A362*100/_input!$B362))</f>
+        <f>VALUE(IF(_input!$B362=0,0,_input!$A362*100/_input!$B362))</f>
         <v>0</v>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="C362" s="20">
-        <f>VALUE(IF(_input!$A363=0,0,_input!$A363*100/_input!$B363))</f>
+        <f>VALUE(IF(_input!$B363=0,0,_input!$A363*100/_input!$B363))</f>
         <v>0</v>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="C363" s="20">
-        <f>VALUE(IF(_input!$A364=0,0,_input!$A364*100/_input!$B364))</f>
+        <f>VALUE(IF(_input!$B364=0,0,_input!$A364*100/_input!$B364))</f>
         <v>0</v>
       </c>
     </row>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="C364" s="20">
-        <f>VALUE(IF(_input!$A365=0,0,_input!$A365*100/_input!$B365))</f>
+        <f>VALUE(IF(_input!$B365=0,0,_input!$A365*100/_input!$B365))</f>
         <v>0</v>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="C365" s="20">
-        <f>VALUE(IF(_input!$A366=0,0,_input!$A366*100/_input!$B366))</f>
+        <f>VALUE(IF(_input!$B366=0,0,_input!$A366*100/_input!$B366))</f>
         <v>0</v>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="C366" s="20">
-        <f>VALUE(IF(_input!$A367=0,0,_input!$A367*100/_input!$B367))</f>
+        <f>VALUE(IF(_input!$B367=0,0,_input!$A367*100/_input!$B367))</f>
         <v>0</v>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="C367" s="20">
-        <f>VALUE(IF(_input!$A368=0,0,_input!$A368*100/_input!$B368))</f>
+        <f>VALUE(IF(_input!$B368=0,0,_input!$A368*100/_input!$B368))</f>
         <v>0</v>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="C368" s="20">
-        <f>VALUE(IF(_input!$A369=0,0,_input!$A369*100/_input!$B369))</f>
+        <f>VALUE(IF(_input!$B369=0,0,_input!$A369*100/_input!$B369))</f>
         <v>0</v>
       </c>
     </row>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="C369" s="20">
-        <f>VALUE(IF(_input!$A370=0,0,_input!$A370*100/_input!$B370))</f>
+        <f>VALUE(IF(_input!$B370=0,0,_input!$A370*100/_input!$B370))</f>
         <v>0</v>
       </c>
     </row>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="C370" s="20">
-        <f>VALUE(IF(_input!$A371=0,0,_input!$A371*100/_input!$B371))</f>
+        <f>VALUE(IF(_input!$B371=0,0,_input!$A371*100/_input!$B371))</f>
         <v>0</v>
       </c>
     </row>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="C371" s="20">
-        <f>VALUE(IF(_input!$A372=0,0,_input!$A372*100/_input!$B372))</f>
+        <f>VALUE(IF(_input!$B372=0,0,_input!$A372*100/_input!$B372))</f>
         <v>0</v>
       </c>
     </row>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="C372" s="20">
-        <f>VALUE(IF(_input!$A373=0,0,_input!$A373*100/_input!$B373))</f>
+        <f>VALUE(IF(_input!$B373=0,0,_input!$A373*100/_input!$B373))</f>
         <v>0</v>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="C373" s="20">
-        <f>VALUE(IF(_input!$A374=0,0,_input!$A374*100/_input!$B374))</f>
+        <f>VALUE(IF(_input!$B374=0,0,_input!$A374*100/_input!$B374))</f>
         <v>0</v>
       </c>
     </row>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="C374" s="20">
-        <f>VALUE(IF(_input!$A375=0,0,_input!$A375*100/_input!$B375))</f>
+        <f>VALUE(IF(_input!$B375=0,0,_input!$A375*100/_input!$B375))</f>
         <v>0</v>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="C375" s="20">
-        <f>VALUE(IF(_input!$A376=0,0,_input!$A376*100/_input!$B376))</f>
+        <f>VALUE(IF(_input!$B376=0,0,_input!$A376*100/_input!$B376))</f>
         <v>0</v>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="C376" s="20">
-        <f>VALUE(IF(_input!$A377=0,0,_input!$A377*100/_input!$B377))</f>
+        <f>VALUE(IF(_input!$B377=0,0,_input!$A377*100/_input!$B377))</f>
         <v>0</v>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="C377" s="20">
-        <f>VALUE(IF(_input!$A378=0,0,_input!$A378*100/_input!$B378))</f>
+        <f>VALUE(IF(_input!$B378=0,0,_input!$A378*100/_input!$B378))</f>
         <v>0</v>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="C378" s="20">
-        <f>VALUE(IF(_input!$A379=0,0,_input!$A379*100/_input!$B379))</f>
+        <f>VALUE(IF(_input!$B379=0,0,_input!$A379*100/_input!$B379))</f>
         <v>0</v>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="C379" s="20">
-        <f>VALUE(IF(_input!$A380=0,0,_input!$A380*100/_input!$B380))</f>
+        <f>VALUE(IF(_input!$B380=0,0,_input!$A380*100/_input!$B380))</f>
         <v>0</v>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="C380" s="20">
-        <f>VALUE(IF(_input!$A381=0,0,_input!$A381*100/_input!$B381))</f>
+        <f>VALUE(IF(_input!$B381=0,0,_input!$A381*100/_input!$B381))</f>
         <v>0</v>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="C381" s="20">
-        <f>VALUE(IF(_input!$A382=0,0,_input!$A382*100/_input!$B382))</f>
+        <f>VALUE(IF(_input!$B382=0,0,_input!$A382*100/_input!$B382))</f>
         <v>0</v>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="C382" s="20">
-        <f>VALUE(IF(_input!$A383=0,0,_input!$A383*100/_input!$B383))</f>
+        <f>VALUE(IF(_input!$B383=0,0,_input!$A383*100/_input!$B383))</f>
         <v>0</v>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="C383" s="20">
-        <f>VALUE(IF(_input!$A384=0,0,_input!$A384*100/_input!$B384))</f>
+        <f>VALUE(IF(_input!$B384=0,0,_input!$A384*100/_input!$B384))</f>
         <v>0</v>
       </c>
     </row>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="C384" s="20">
-        <f>VALUE(IF(_input!$A385=0,0,_input!$A385*100/_input!$B385))</f>
+        <f>VALUE(IF(_input!$B385=0,0,_input!$A385*100/_input!$B385))</f>
         <v>0</v>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="C385" s="20">
-        <f>VALUE(IF(_input!$A386=0,0,_input!$A386*100/_input!$B386))</f>
+        <f>VALUE(IF(_input!$B386=0,0,_input!$A386*100/_input!$B386))</f>
         <v>0</v>
       </c>
     </row>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="C386" s="20">
-        <f>VALUE(IF(_input!$A387=0,0,_input!$A387*100/_input!$B387))</f>
+        <f>VALUE(IF(_input!$B387=0,0,_input!$A387*100/_input!$B387))</f>
         <v>0</v>
       </c>
     </row>
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="C387" s="20">
-        <f>VALUE(IF(_input!$A388=0,0,_input!$A388*100/_input!$B388))</f>
+        <f>VALUE(IF(_input!$B388=0,0,_input!$A388*100/_input!$B388))</f>
         <v>0</v>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="C388" s="20">
-        <f>VALUE(IF(_input!$A389=0,0,_input!$A389*100/_input!$B389))</f>
+        <f>VALUE(IF(_input!$B389=0,0,_input!$A389*100/_input!$B389))</f>
         <v>0</v>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="C389" s="20">
-        <f>VALUE(IF(_input!$A390=0,0,_input!$A390*100/_input!$B390))</f>
+        <f>VALUE(IF(_input!$B390=0,0,_input!$A390*100/_input!$B390))</f>
         <v>0</v>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="C390" s="20">
-        <f>VALUE(IF(_input!$A391=0,0,_input!$A391*100/_input!$B391))</f>
+        <f>VALUE(IF(_input!$B391=0,0,_input!$A391*100/_input!$B391))</f>
         <v>0</v>
       </c>
     </row>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="C391" s="20">
-        <f>VALUE(IF(_input!$A392=0,0,_input!$A392*100/_input!$B392))</f>
+        <f>VALUE(IF(_input!$B392=0,0,_input!$A392*100/_input!$B392))</f>
         <v>0</v>
       </c>
     </row>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="C392" s="20">
-        <f>VALUE(IF(_input!$A393=0,0,_input!$A393*100/_input!$B393))</f>
+        <f>VALUE(IF(_input!$B393=0,0,_input!$A393*100/_input!$B393))</f>
         <v>0</v>
       </c>
     </row>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="C393" s="20">
-        <f>VALUE(IF(_input!$A394=0,0,_input!$A394*100/_input!$B394))</f>
+        <f>VALUE(IF(_input!$B394=0,0,_input!$A394*100/_input!$B394))</f>
         <v>0</v>
       </c>
     </row>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="C394" s="20">
-        <f>VALUE(IF(_input!$A395=0,0,_input!$A395*100/_input!$B395))</f>
+        <f>VALUE(IF(_input!$B395=0,0,_input!$A395*100/_input!$B395))</f>
         <v>0</v>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="C395" s="20">
-        <f>VALUE(IF(_input!$A396=0,0,_input!$A396*100/_input!$B396))</f>
+        <f>VALUE(IF(_input!$B396=0,0,_input!$A396*100/_input!$B396))</f>
         <v>0</v>
       </c>
     </row>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="C396" s="20">
-        <f>VALUE(IF(_input!$A397=0,0,_input!$A397*100/_input!$B397))</f>
+        <f>VALUE(IF(_input!$B397=0,0,_input!$A397*100/_input!$B397))</f>
         <v>0</v>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="C397" s="20">
-        <f>VALUE(IF(_input!$A398=0,0,_input!$A398*100/_input!$B398))</f>
+        <f>VALUE(IF(_input!$B398=0,0,_input!$A398*100/_input!$B398))</f>
         <v>0</v>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="C398" s="20">
-        <f>VALUE(IF(_input!$A399=0,0,_input!$A399*100/_input!$B399))</f>
+        <f>VALUE(IF(_input!$B399=0,0,_input!$A399*100/_input!$B399))</f>
         <v>0</v>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="C399" s="20">
-        <f>VALUE(IF(_input!$A400=0,0,_input!$A400*100/_input!$B400))</f>
+        <f>VALUE(IF(_input!$B400=0,0,_input!$A400*100/_input!$B400))</f>
         <v>0</v>
       </c>
     </row>
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="C400" s="20">
-        <f>VALUE(IF(_input!$A401=0,0,_input!$A401*100/_input!$B401))</f>
+        <f>VALUE(IF(_input!$B401=0,0,_input!$A401*100/_input!$B401))</f>
         <v>0</v>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="C401" s="20">
-        <f>VALUE(IF(_input!$A402=0,0,_input!$A402*100/_input!$B402))</f>
+        <f>VALUE(IF(_input!$B402=0,0,_input!$A402*100/_input!$B402))</f>
         <v>0</v>
       </c>
     </row>
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="C402" s="20">
-        <f>VALUE(IF(_input!$A403=0,0,_input!$A403*100/_input!$B403))</f>
+        <f>VALUE(IF(_input!$B403=0,0,_input!$A403*100/_input!$B403))</f>
         <v>0</v>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="C403" s="20">
-        <f>VALUE(IF(_input!$A404=0,0,_input!$A404*100/_input!$B404))</f>
+        <f>VALUE(IF(_input!$B404=0,0,_input!$A404*100/_input!$B404))</f>
         <v>0</v>
       </c>
     </row>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="C404" s="20">
-        <f>VALUE(IF(_input!$A405=0,0,_input!$A405*100/_input!$B405))</f>
+        <f>VALUE(IF(_input!$B405=0,0,_input!$A405*100/_input!$B405))</f>
         <v>0</v>
       </c>
     </row>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="C405" s="20">
-        <f>VALUE(IF(_input!$A406=0,0,_input!$A406*100/_input!$B406))</f>
+        <f>VALUE(IF(_input!$B406=0,0,_input!$A406*100/_input!$B406))</f>
         <v>0</v>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="C406" s="20">
-        <f>VALUE(IF(_input!$A407=0,0,_input!$A407*100/_input!$B407))</f>
+        <f>VALUE(IF(_input!$B407=0,0,_input!$A407*100/_input!$B407))</f>
         <v>0</v>
       </c>
     </row>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="C407" s="20">
-        <f>VALUE(IF(_input!$A408=0,0,_input!$A408*100/_input!$B408))</f>
+        <f>VALUE(IF(_input!$B408=0,0,_input!$A408*100/_input!$B408))</f>
         <v>0</v>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="C408" s="20">
-        <f>VALUE(IF(_input!$A409=0,0,_input!$A409*100/_input!$B409))</f>
+        <f>VALUE(IF(_input!$B409=0,0,_input!$A409*100/_input!$B409))</f>
         <v>0</v>
       </c>
     </row>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="C409" s="20">
-        <f>VALUE(IF(_input!$A410=0,0,_input!$A410*100/_input!$B410))</f>
+        <f>VALUE(IF(_input!$B410=0,0,_input!$A410*100/_input!$B410))</f>
         <v>0</v>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="C410" s="20">
-        <f>VALUE(IF(_input!$A411=0,0,_input!$A411*100/_input!$B411))</f>
+        <f>VALUE(IF(_input!$B411=0,0,_input!$A411*100/_input!$B411))</f>
         <v>0</v>
       </c>
     </row>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="C411" s="20">
-        <f>VALUE(IF(_input!$A412=0,0,_input!$A412*100/_input!$B412))</f>
+        <f>VALUE(IF(_input!$B412=0,0,_input!$A412*100/_input!$B412))</f>
         <v>0</v>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="C412" s="20">
-        <f>VALUE(IF(_input!$A413=0,0,_input!$A413*100/_input!$B413))</f>
+        <f>VALUE(IF(_input!$B413=0,0,_input!$A413*100/_input!$B413))</f>
         <v>0</v>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="C413" s="20">
-        <f>VALUE(IF(_input!$A414=0,0,_input!$A414*100/_input!$B414))</f>
+        <f>VALUE(IF(_input!$B414=0,0,_input!$A414*100/_input!$B414))</f>
         <v>0</v>
       </c>
     </row>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="C414" s="20">
-        <f>VALUE(IF(_input!$A415=0,0,_input!$A415*100/_input!$B415))</f>
+        <f>VALUE(IF(_input!$B415=0,0,_input!$A415*100/_input!$B415))</f>
         <v>0</v>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="C415" s="20">
-        <f>VALUE(IF(_input!$A416=0,0,_input!$A416*100/_input!$B416))</f>
+        <f>VALUE(IF(_input!$B416=0,0,_input!$A416*100/_input!$B416))</f>
         <v>0</v>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="C416" s="20">
-        <f>VALUE(IF(_input!$A417=0,0,_input!$A417*100/_input!$B417))</f>
+        <f>VALUE(IF(_input!$B417=0,0,_input!$A417*100/_input!$B417))</f>
         <v>0</v>
       </c>
     </row>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="C417" s="20">
-        <f>VALUE(IF(_input!$A418=0,0,_input!$A418*100/_input!$B418))</f>
+        <f>VALUE(IF(_input!$B418=0,0,_input!$A418*100/_input!$B418))</f>
         <v>0</v>
       </c>
     </row>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="C418" s="20">
-        <f>VALUE(IF(_input!$A419=0,0,_input!$A419*100/_input!$B419))</f>
+        <f>VALUE(IF(_input!$B419=0,0,_input!$A419*100/_input!$B419))</f>
         <v>0</v>
       </c>
     </row>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="C419" s="20">
-        <f>VALUE(IF(_input!$A420=0,0,_input!$A420*100/_input!$B420))</f>
+        <f>VALUE(IF(_input!$B420=0,0,_input!$A420*100/_input!$B420))</f>
         <v>0</v>
       </c>
     </row>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="C420" s="20">
-        <f>VALUE(IF(_input!$A421=0,0,_input!$A421*100/_input!$B421))</f>
+        <f>VALUE(IF(_input!$B421=0,0,_input!$A421*100/_input!$B421))</f>
         <v>0</v>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="C421" s="20">
-        <f>VALUE(IF(_input!$A422=0,0,_input!$A422*100/_input!$B422))</f>
+        <f>VALUE(IF(_input!$B422=0,0,_input!$A422*100/_input!$B422))</f>
         <v>0</v>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="C422" s="20">
-        <f>VALUE(IF(_input!$A423=0,0,_input!$A423*100/_input!$B423))</f>
+        <f>VALUE(IF(_input!$B423=0,0,_input!$A423*100/_input!$B423))</f>
         <v>0</v>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="C423" s="20">
-        <f>VALUE(IF(_input!$A424=0,0,_input!$A424*100/_input!$B424))</f>
+        <f>VALUE(IF(_input!$B424=0,0,_input!$A424*100/_input!$B424))</f>
         <v>0</v>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="C424" s="20">
-        <f>VALUE(IF(_input!$A425=0,0,_input!$A425*100/_input!$B425))</f>
+        <f>VALUE(IF(_input!$B425=0,0,_input!$A425*100/_input!$B425))</f>
         <v>0</v>
       </c>
     </row>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="C425" s="20">
-        <f>VALUE(IF(_input!$A426=0,0,_input!$A426*100/_input!$B426))</f>
+        <f>VALUE(IF(_input!$B426=0,0,_input!$A426*100/_input!$B426))</f>
         <v>0</v>
       </c>
     </row>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="C426" s="20">
-        <f>VALUE(IF(_input!$A427=0,0,_input!$A427*100/_input!$B427))</f>
+        <f>VALUE(IF(_input!$B427=0,0,_input!$A427*100/_input!$B427))</f>
         <v>0</v>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="C427" s="20">
-        <f>VALUE(IF(_input!$A428=0,0,_input!$A428*100/_input!$B428))</f>
+        <f>VALUE(IF(_input!$B428=0,0,_input!$A428*100/_input!$B428))</f>
         <v>0</v>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="C428" s="20">
-        <f>VALUE(IF(_input!$A429=0,0,_input!$A429*100/_input!$B429))</f>
+        <f>VALUE(IF(_input!$B429=0,0,_input!$A429*100/_input!$B429))</f>
         <v>0</v>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="C429" s="20">
-        <f>VALUE(IF(_input!$A430=0,0,_input!$A430*100/_input!$B430))</f>
+        <f>VALUE(IF(_input!$B430=0,0,_input!$A430*100/_input!$B430))</f>
         <v>0</v>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="C430" s="20">
-        <f>VALUE(IF(_input!$A431=0,0,_input!$A431*100/_input!$B431))</f>
+        <f>VALUE(IF(_input!$B431=0,0,_input!$A431*100/_input!$B431))</f>
         <v>0</v>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="C431" s="20">
-        <f>VALUE(IF(_input!$A432=0,0,_input!$A432*100/_input!$B432))</f>
+        <f>VALUE(IF(_input!$B432=0,0,_input!$A432*100/_input!$B432))</f>
         <v>0</v>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="C432" s="20">
-        <f>VALUE(IF(_input!$A433=0,0,_input!$A433*100/_input!$B433))</f>
+        <f>VALUE(IF(_input!$B433=0,0,_input!$A433*100/_input!$B433))</f>
         <v>0</v>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="C433" s="20">
-        <f>VALUE(IF(_input!$A434=0,0,_input!$A434*100/_input!$B434))</f>
+        <f>VALUE(IF(_input!$B434=0,0,_input!$A434*100/_input!$B434))</f>
         <v>0</v>
       </c>
     </row>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="C434" s="20">
-        <f>VALUE(IF(_input!$A435=0,0,_input!$A435*100/_input!$B435))</f>
+        <f>VALUE(IF(_input!$B435=0,0,_input!$A435*100/_input!$B435))</f>
         <v>0</v>
       </c>
     </row>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="C435" s="20">
-        <f>VALUE(IF(_input!$A436=0,0,_input!$A436*100/_input!$B436))</f>
+        <f>VALUE(IF(_input!$B436=0,0,_input!$A436*100/_input!$B436))</f>
         <v>0</v>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="C436" s="20">
-        <f>VALUE(IF(_input!$A437=0,0,_input!$A437*100/_input!$B437))</f>
+        <f>VALUE(IF(_input!$B437=0,0,_input!$A437*100/_input!$B437))</f>
         <v>0</v>
       </c>
     </row>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="C437" s="20">
-        <f>VALUE(IF(_input!$A438=0,0,_input!$A438*100/_input!$B438))</f>
+        <f>VALUE(IF(_input!$B438=0,0,_input!$A438*100/_input!$B438))</f>
         <v>0</v>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="C438" s="20">
-        <f>VALUE(IF(_input!$A439=0,0,_input!$A439*100/_input!$B439))</f>
+        <f>VALUE(IF(_input!$B439=0,0,_input!$A439*100/_input!$B439))</f>
         <v>0</v>
       </c>
     </row>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="C439" s="20">
-        <f>VALUE(IF(_input!$A440=0,0,_input!$A440*100/_input!$B440))</f>
+        <f>VALUE(IF(_input!$B440=0,0,_input!$A440*100/_input!$B440))</f>
         <v>0</v>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="C440" s="20">
-        <f>VALUE(IF(_input!$A441=0,0,_input!$A441*100/_input!$B441))</f>
+        <f>VALUE(IF(_input!$B441=0,0,_input!$A441*100/_input!$B441))</f>
         <v>0</v>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="C441" s="20">
-        <f>VALUE(IF(_input!$A442=0,0,_input!$A442*100/_input!$B442))</f>
+        <f>VALUE(IF(_input!$B442=0,0,_input!$A442*100/_input!$B442))</f>
         <v>0</v>
       </c>
     </row>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="C442" s="20">
-        <f>VALUE(IF(_input!$A443=0,0,_input!$A443*100/_input!$B443))</f>
+        <f>VALUE(IF(_input!$B443=0,0,_input!$A443*100/_input!$B443))</f>
         <v>0</v>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="C443" s="20">
-        <f>VALUE(IF(_input!$A444=0,0,_input!$A444*100/_input!$B444))</f>
+        <f>VALUE(IF(_input!$B444=0,0,_input!$A444*100/_input!$B444))</f>
         <v>0</v>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="C444" s="20">
-        <f>VALUE(IF(_input!$A445=0,0,_input!$A445*100/_input!$B445))</f>
+        <f>VALUE(IF(_input!$B445=0,0,_input!$A445*100/_input!$B445))</f>
         <v>0</v>
       </c>
     </row>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="C445" s="20">
-        <f>VALUE(IF(_input!$A446=0,0,_input!$A446*100/_input!$B446))</f>
+        <f>VALUE(IF(_input!$B446=0,0,_input!$A446*100/_input!$B446))</f>
         <v>0</v>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="C446" s="20">
-        <f>VALUE(IF(_input!$A447=0,0,_input!$A447*100/_input!$B447))</f>
+        <f>VALUE(IF(_input!$B447=0,0,_input!$A447*100/_input!$B447))</f>
         <v>0</v>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="C447" s="20">
-        <f>VALUE(IF(_input!$A448=0,0,_input!$A448*100/_input!$B448))</f>
+        <f>VALUE(IF(_input!$B448=0,0,_input!$A448*100/_input!$B448))</f>
         <v>0</v>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="C448" s="20">
-        <f>VALUE(IF(_input!$A449=0,0,_input!$A449*100/_input!$B449))</f>
+        <f>VALUE(IF(_input!$B449=0,0,_input!$A449*100/_input!$B449))</f>
         <v>0</v>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="C449" s="20">
-        <f>VALUE(IF(_input!$A450=0,0,_input!$A450*100/_input!$B450))</f>
+        <f>VALUE(IF(_input!$B450=0,0,_input!$A450*100/_input!$B450))</f>
         <v>0</v>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="C450" s="20">
-        <f>VALUE(IF(_input!$A451=0,0,_input!$A451*100/_input!$B451))</f>
+        <f>VALUE(IF(_input!$B451=0,0,_input!$A451*100/_input!$B451))</f>
         <v>0</v>
       </c>
     </row>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="C451" s="20">
-        <f>VALUE(IF(_input!$A452=0,0,_input!$A452*100/_input!$B452))</f>
+        <f>VALUE(IF(_input!$B452=0,0,_input!$A452*100/_input!$B452))</f>
         <v>0</v>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="C452" s="20">
-        <f>VALUE(IF(_input!$A453=0,0,_input!$A453*100/_input!$B453))</f>
+        <f>VALUE(IF(_input!$B453=0,0,_input!$A453*100/_input!$B453))</f>
         <v>0</v>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="C453" s="20">
-        <f>VALUE(IF(_input!$A454=0,0,_input!$A454*100/_input!$B454))</f>
+        <f>VALUE(IF(_input!$B454=0,0,_input!$A454*100/_input!$B454))</f>
         <v>0</v>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="C454" s="20">
-        <f>VALUE(IF(_input!$A455=0,0,_input!$A455*100/_input!$B455))</f>
+        <f>VALUE(IF(_input!$B455=0,0,_input!$A455*100/_input!$B455))</f>
         <v>0</v>
       </c>
     </row>
@@ -7769,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="C455" s="20">
-        <f>VALUE(IF(_input!$A456=0,0,_input!$A456*100/_input!$B456))</f>
+        <f>VALUE(IF(_input!$B456=0,0,_input!$A456*100/_input!$B456))</f>
         <v>0</v>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="C456" s="20">
-        <f>VALUE(IF(_input!$A457=0,0,_input!$A457*100/_input!$B457))</f>
+        <f>VALUE(IF(_input!$B457=0,0,_input!$A457*100/_input!$B457))</f>
         <v>0</v>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="C457" s="20">
-        <f>VALUE(IF(_input!$A458=0,0,_input!$A458*100/_input!$B458))</f>
+        <f>VALUE(IF(_input!$B458=0,0,_input!$A458*100/_input!$B458))</f>
         <v>0</v>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="C458" s="20">
-        <f>VALUE(IF(_input!$A459=0,0,_input!$A459*100/_input!$B459))</f>
+        <f>VALUE(IF(_input!$B459=0,0,_input!$A459*100/_input!$B459))</f>
         <v>0</v>
       </c>
     </row>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="C459" s="20">
-        <f>VALUE(IF(_input!$A460=0,0,_input!$A460*100/_input!$B460))</f>
+        <f>VALUE(IF(_input!$B460=0,0,_input!$A460*100/_input!$B460))</f>
         <v>0</v>
       </c>
     </row>
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="C460" s="20">
-        <f>VALUE(IF(_input!$A461=0,0,_input!$A461*100/_input!$B461))</f>
+        <f>VALUE(IF(_input!$B461=0,0,_input!$A461*100/_input!$B461))</f>
         <v>0</v>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="C461" s="20">
-        <f>VALUE(IF(_input!$A462=0,0,_input!$A462*100/_input!$B462))</f>
+        <f>VALUE(IF(_input!$B462=0,0,_input!$A462*100/_input!$B462))</f>
         <v>0</v>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="C462" s="20">
-        <f>VALUE(IF(_input!$A463=0,0,_input!$A463*100/_input!$B463))</f>
+        <f>VALUE(IF(_input!$B463=0,0,_input!$A463*100/_input!$B463))</f>
         <v>0</v>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="C463" s="20">
-        <f>VALUE(IF(_input!$A464=0,0,_input!$A464*100/_input!$B464))</f>
+        <f>VALUE(IF(_input!$B464=0,0,_input!$A464*100/_input!$B464))</f>
         <v>0</v>
       </c>
     </row>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="C464" s="20">
-        <f>VALUE(IF(_input!$A465=0,0,_input!$A465*100/_input!$B465))</f>
+        <f>VALUE(IF(_input!$B465=0,0,_input!$A465*100/_input!$B465))</f>
         <v>0</v>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="C465" s="20">
-        <f>VALUE(IF(_input!$A466=0,0,_input!$A466*100/_input!$B466))</f>
+        <f>VALUE(IF(_input!$B466=0,0,_input!$A466*100/_input!$B466))</f>
         <v>0</v>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="C466" s="20">
-        <f>VALUE(IF(_input!$A467=0,0,_input!$A467*100/_input!$B467))</f>
+        <f>VALUE(IF(_input!$B467=0,0,_input!$A467*100/_input!$B467))</f>
         <v>0</v>
       </c>
     </row>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="C467" s="20">
-        <f>VALUE(IF(_input!$A468=0,0,_input!$A468*100/_input!$B468))</f>
+        <f>VALUE(IF(_input!$B468=0,0,_input!$A468*100/_input!$B468))</f>
         <v>0</v>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="C468" s="20">
-        <f>VALUE(IF(_input!$A469=0,0,_input!$A469*100/_input!$B469))</f>
+        <f>VALUE(IF(_input!$B469=0,0,_input!$A469*100/_input!$B469))</f>
         <v>0</v>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="C469" s="20">
-        <f>VALUE(IF(_input!$A470=0,0,_input!$A470*100/_input!$B470))</f>
+        <f>VALUE(IF(_input!$B470=0,0,_input!$A470*100/_input!$B470))</f>
         <v>0</v>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="C470" s="20">
-        <f>VALUE(IF(_input!$A471=0,0,_input!$A471*100/_input!$B471))</f>
+        <f>VALUE(IF(_input!$B471=0,0,_input!$A471*100/_input!$B471))</f>
         <v>0</v>
       </c>
     </row>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="C471" s="20">
-        <f>VALUE(IF(_input!$A472=0,0,_input!$A472*100/_input!$B472))</f>
+        <f>VALUE(IF(_input!$B472=0,0,_input!$A472*100/_input!$B472))</f>
         <v>0</v>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="C472" s="20">
-        <f>VALUE(IF(_input!$A473=0,0,_input!$A473*100/_input!$B473))</f>
+        <f>VALUE(IF(_input!$B473=0,0,_input!$A473*100/_input!$B473))</f>
         <v>0</v>
       </c>
     </row>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="C473" s="20">
-        <f>VALUE(IF(_input!$A474=0,0,_input!$A474*100/_input!$B474))</f>
+        <f>VALUE(IF(_input!$B474=0,0,_input!$A474*100/_input!$B474))</f>
         <v>0</v>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="C474" s="20">
-        <f>VALUE(IF(_input!$A475=0,0,_input!$A475*100/_input!$B475))</f>
+        <f>VALUE(IF(_input!$B475=0,0,_input!$A475*100/_input!$B475))</f>
         <v>0</v>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="C475" s="20">
-        <f>VALUE(IF(_input!$A476=0,0,_input!$A476*100/_input!$B476))</f>
+        <f>VALUE(IF(_input!$B476=0,0,_input!$A476*100/_input!$B476))</f>
         <v>0</v>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="C476" s="20">
-        <f>VALUE(IF(_input!$A477=0,0,_input!$A477*100/_input!$B477))</f>
+        <f>VALUE(IF(_input!$B477=0,0,_input!$A477*100/_input!$B477))</f>
         <v>0</v>
       </c>
     </row>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="C477" s="20">
-        <f>VALUE(IF(_input!$A478=0,0,_input!$A478*100/_input!$B478))</f>
+        <f>VALUE(IF(_input!$B478=0,0,_input!$A478*100/_input!$B478))</f>
         <v>0</v>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="C478" s="20">
-        <f>VALUE(IF(_input!$A479=0,0,_input!$A479*100/_input!$B479))</f>
+        <f>VALUE(IF(_input!$B479=0,0,_input!$A479*100/_input!$B479))</f>
         <v>0</v>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="C479" s="20">
-        <f>VALUE(IF(_input!$A480=0,0,_input!$A480*100/_input!$B480))</f>
+        <f>VALUE(IF(_input!$B480=0,0,_input!$A480*100/_input!$B480))</f>
         <v>0</v>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="C480" s="20">
-        <f>VALUE(IF(_input!$A481=0,0,_input!$A481*100/_input!$B481))</f>
+        <f>VALUE(IF(_input!$B481=0,0,_input!$A481*100/_input!$B481))</f>
         <v>0</v>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="C481" s="20">
-        <f>VALUE(IF(_input!$A482=0,0,_input!$A482*100/_input!$B482))</f>
+        <f>VALUE(IF(_input!$B482=0,0,_input!$A482*100/_input!$B482))</f>
         <v>0</v>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="C482" s="20">
-        <f>VALUE(IF(_input!$A483=0,0,_input!$A483*100/_input!$B483))</f>
+        <f>VALUE(IF(_input!$B483=0,0,_input!$A483*100/_input!$B483))</f>
         <v>0</v>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="C483" s="20">
-        <f>VALUE(IF(_input!$A484=0,0,_input!$A484*100/_input!$B484))</f>
+        <f>VALUE(IF(_input!$B484=0,0,_input!$A484*100/_input!$B484))</f>
         <v>0</v>
       </c>
     </row>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="C484" s="20">
-        <f>VALUE(IF(_input!$A485=0,0,_input!$A485*100/_input!$B485))</f>
+        <f>VALUE(IF(_input!$B485=0,0,_input!$A485*100/_input!$B485))</f>
         <v>0</v>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="C485" s="20">
-        <f>VALUE(IF(_input!$A486=0,0,_input!$A486*100/_input!$B486))</f>
+        <f>VALUE(IF(_input!$B486=0,0,_input!$A486*100/_input!$B486))</f>
         <v>0</v>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="C486" s="20">
-        <f>VALUE(IF(_input!$A487=0,0,_input!$A487*100/_input!$B487))</f>
+        <f>VALUE(IF(_input!$B487=0,0,_input!$A487*100/_input!$B487))</f>
         <v>0</v>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="C487" s="20">
-        <f>VALUE(IF(_input!$A488=0,0,_input!$A488*100/_input!$B488))</f>
+        <f>VALUE(IF(_input!$B488=0,0,_input!$A488*100/_input!$B488))</f>
         <v>0</v>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="C488" s="20">
-        <f>VALUE(IF(_input!$A489=0,0,_input!$A489*100/_input!$B489))</f>
+        <f>VALUE(IF(_input!$B489=0,0,_input!$A489*100/_input!$B489))</f>
         <v>0</v>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="C489" s="20">
-        <f>VALUE(IF(_input!$A490=0,0,_input!$A490*100/_input!$B490))</f>
+        <f>VALUE(IF(_input!$B490=0,0,_input!$A490*100/_input!$B490))</f>
         <v>0</v>
       </c>
     </row>
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="C490" s="20">
-        <f>VALUE(IF(_input!$A491=0,0,_input!$A491*100/_input!$B491))</f>
+        <f>VALUE(IF(_input!$B491=0,0,_input!$A491*100/_input!$B491))</f>
         <v>0</v>
       </c>
     </row>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="C491" s="20">
-        <f>VALUE(IF(_input!$A492=0,0,_input!$A492*100/_input!$B492))</f>
+        <f>VALUE(IF(_input!$B492=0,0,_input!$A492*100/_input!$B492))</f>
         <v>0</v>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="C492" s="20">
-        <f>VALUE(IF(_input!$A493=0,0,_input!$A493*100/_input!$B493))</f>
+        <f>VALUE(IF(_input!$B493=0,0,_input!$A493*100/_input!$B493))</f>
         <v>0</v>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="C493" s="20">
-        <f>VALUE(IF(_input!$A494=0,0,_input!$A494*100/_input!$B494))</f>
+        <f>VALUE(IF(_input!$B494=0,0,_input!$A494*100/_input!$B494))</f>
         <v>0</v>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="C494" s="20">
-        <f>VALUE(IF(_input!$A495=0,0,_input!$A495*100/_input!$B495))</f>
+        <f>VALUE(IF(_input!$B495=0,0,_input!$A495*100/_input!$B495))</f>
         <v>0</v>
       </c>
     </row>
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="C495" s="20">
-        <f>VALUE(IF(_input!$A496=0,0,_input!$A496*100/_input!$B496))</f>
+        <f>VALUE(IF(_input!$B496=0,0,_input!$A496*100/_input!$B496))</f>
         <v>0</v>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="C496" s="20">
-        <f>VALUE(IF(_input!$A497=0,0,_input!$A497*100/_input!$B497))</f>
+        <f>VALUE(IF(_input!$B497=0,0,_input!$A497*100/_input!$B497))</f>
         <v>0</v>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="C497" s="20">
-        <f>VALUE(IF(_input!$A498=0,0,_input!$A498*100/_input!$B498))</f>
+        <f>VALUE(IF(_input!$B498=0,0,_input!$A498*100/_input!$B498))</f>
         <v>0</v>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="C498" s="20">
-        <f>VALUE(IF(_input!$A499=0,0,_input!$A499*100/_input!$B499))</f>
+        <f>VALUE(IF(_input!$B499=0,0,_input!$A499*100/_input!$B499))</f>
         <v>0</v>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="C499" s="20">
-        <f>VALUE(IF(_input!$A500=0,0,_input!$A500*100/_input!$B500))</f>
+        <f>VALUE(IF(_input!$B500=0,0,_input!$A500*100/_input!$B500))</f>
         <v>0</v>
       </c>
     </row>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="C500" s="20">
-        <f>VALUE(IF(_input!$A501=0,0,_input!$A501*100/_input!$B501))</f>
+        <f>VALUE(IF(_input!$B501=0,0,_input!$A501*100/_input!$B501))</f>
         <v>0</v>
       </c>
     </row>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="C501" s="20">
-        <f>VALUE(IF(_input!$A502=0,0,_input!$A502*100/_input!$B502))</f>
+        <f>VALUE(IF(_input!$B502=0,0,_input!$A502*100/_input!$B502))</f>
         <v>0</v>
       </c>
     </row>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="C502" s="20">
-        <f>VALUE(IF(_input!$A503=0,0,_input!$A503*100/_input!$B503))</f>
+        <f>VALUE(IF(_input!$B503=0,0,_input!$A503*100/_input!$B503))</f>
         <v>0</v>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="C503" s="20">
-        <f>VALUE(IF(_input!$A504=0,0,_input!$A504*100/_input!$B504))</f>
+        <f>VALUE(IF(_input!$B504=0,0,_input!$A504*100/_input!$B504))</f>
         <v>0</v>
       </c>
     </row>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="C504" s="20">
-        <f>VALUE(IF(_input!$A505=0,0,_input!$A505*100/_input!$B505))</f>
+        <f>VALUE(IF(_input!$B505=0,0,_input!$A505*100/_input!$B505))</f>
         <v>0</v>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="C505" s="20">
-        <f>VALUE(IF(_input!$A506=0,0,_input!$A506*100/_input!$B506))</f>
+        <f>VALUE(IF(_input!$B506=0,0,_input!$A506*100/_input!$B506))</f>
         <v>0</v>
       </c>
     </row>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="C506" s="20">
-        <f>VALUE(IF(_input!$A507=0,0,_input!$A507*100/_input!$B507))</f>
+        <f>VALUE(IF(_input!$B507=0,0,_input!$A507*100/_input!$B507))</f>
         <v>0</v>
       </c>
     </row>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="C507" s="20">
-        <f>VALUE(IF(_input!$A508=0,0,_input!$A508*100/_input!$B508))</f>
+        <f>VALUE(IF(_input!$B508=0,0,_input!$A508*100/_input!$B508))</f>
         <v>0</v>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="C508" s="20">
-        <f>VALUE(IF(_input!$A509=0,0,_input!$A509*100/_input!$B509))</f>
+        <f>VALUE(IF(_input!$B509=0,0,_input!$A509*100/_input!$B509))</f>
         <v>0</v>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="C509" s="20">
-        <f>VALUE(IF(_input!$A510=0,0,_input!$A510*100/_input!$B510))</f>
+        <f>VALUE(IF(_input!$B510=0,0,_input!$A510*100/_input!$B510))</f>
         <v>0</v>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="C510" s="20">
-        <f>VALUE(IF(_input!$A511=0,0,_input!$A511*100/_input!$B511))</f>
+        <f>VALUE(IF(_input!$B511=0,0,_input!$A511*100/_input!$B511))</f>
         <v>0</v>
       </c>
     </row>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="C511" s="20">
-        <f>VALUE(IF(_input!$A512=0,0,_input!$A512*100/_input!$B512))</f>
+        <f>VALUE(IF(_input!$B512=0,0,_input!$A512*100/_input!$B512))</f>
         <v>0</v>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="C512" s="20">
-        <f>VALUE(IF(_input!$A513=0,0,_input!$A513*100/_input!$B513))</f>
+        <f>VALUE(IF(_input!$B513=0,0,_input!$A513*100/_input!$B513))</f>
         <v>0</v>
       </c>
     </row>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="C513" s="20">
-        <f>VALUE(IF(_input!$A514=0,0,_input!$A514*100/_input!$B514))</f>
+        <f>VALUE(IF(_input!$B514=0,0,_input!$A514*100/_input!$B514))</f>
         <v>0</v>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="C514" s="20">
-        <f>VALUE(IF(_input!$A515=0,0,_input!$A515*100/_input!$B515))</f>
+        <f>VALUE(IF(_input!$B515=0,0,_input!$A515*100/_input!$B515))</f>
         <v>0</v>
       </c>
     </row>
@@ -8609,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="C515" s="20">
-        <f>VALUE(IF(_input!$A516=0,0,_input!$A516*100/_input!$B516))</f>
+        <f>VALUE(IF(_input!$B516=0,0,_input!$A516*100/_input!$B516))</f>
         <v>0</v>
       </c>
     </row>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="C516" s="20">
-        <f>VALUE(IF(_input!$A517=0,0,_input!$A517*100/_input!$B517))</f>
+        <f>VALUE(IF(_input!$B517=0,0,_input!$A517*100/_input!$B517))</f>
         <v>0</v>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="C517" s="20">
-        <f>VALUE(IF(_input!$A518=0,0,_input!$A518*100/_input!$B518))</f>
+        <f>VALUE(IF(_input!$B518=0,0,_input!$A518*100/_input!$B518))</f>
         <v>0</v>
       </c>
     </row>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="C518" s="20">
-        <f>VALUE(IF(_input!$A519=0,0,_input!$A519*100/_input!$B519))</f>
+        <f>VALUE(IF(_input!$B519=0,0,_input!$A519*100/_input!$B519))</f>
         <v>0</v>
       </c>
     </row>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="C519" s="20">
-        <f>VALUE(IF(_input!$A520=0,0,_input!$A520*100/_input!$B520))</f>
+        <f>VALUE(IF(_input!$B520=0,0,_input!$A520*100/_input!$B520))</f>
         <v>0</v>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="C520" s="20">
-        <f>VALUE(IF(_input!$A521=0,0,_input!$A521*100/_input!$B521))</f>
+        <f>VALUE(IF(_input!$B521=0,0,_input!$A521*100/_input!$B521))</f>
         <v>0</v>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="C521" s="20">
-        <f>VALUE(IF(_input!$A522=0,0,_input!$A522*100/_input!$B522))</f>
+        <f>VALUE(IF(_input!$B522=0,0,_input!$A522*100/_input!$B522))</f>
         <v>0</v>
       </c>
     </row>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="C522" s="20">
-        <f>VALUE(IF(_input!$A523=0,0,_input!$A523*100/_input!$B523))</f>
+        <f>VALUE(IF(_input!$B523=0,0,_input!$A523*100/_input!$B523))</f>
         <v>0</v>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="C523" s="20">
-        <f>VALUE(IF(_input!$A524=0,0,_input!$A524*100/_input!$B524))</f>
+        <f>VALUE(IF(_input!$B524=0,0,_input!$A524*100/_input!$B524))</f>
         <v>0</v>
       </c>
     </row>
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="C524" s="20">
-        <f>VALUE(IF(_input!$A525=0,0,_input!$A525*100/_input!$B525))</f>
+        <f>VALUE(IF(_input!$B525=0,0,_input!$A525*100/_input!$B525))</f>
         <v>0</v>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="C525" s="20">
-        <f>VALUE(IF(_input!$A526=0,0,_input!$A526*100/_input!$B526))</f>
+        <f>VALUE(IF(_input!$B526=0,0,_input!$A526*100/_input!$B526))</f>
         <v>0</v>
       </c>
     </row>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="C526" s="20">
-        <f>VALUE(IF(_input!$A527=0,0,_input!$A527*100/_input!$B527))</f>
+        <f>VALUE(IF(_input!$B527=0,0,_input!$A527*100/_input!$B527))</f>
         <v>0</v>
       </c>
     </row>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="C527" s="20">
-        <f>VALUE(IF(_input!$A528=0,0,_input!$A528*100/_input!$B528))</f>
+        <f>VALUE(IF(_input!$B528=0,0,_input!$A528*100/_input!$B528))</f>
         <v>0</v>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="C528" s="20">
-        <f>VALUE(IF(_input!$A529=0,0,_input!$A529*100/_input!$B529))</f>
+        <f>VALUE(IF(_input!$B529=0,0,_input!$A529*100/_input!$B529))</f>
         <v>0</v>
       </c>
     </row>
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="C529" s="20">
-        <f>VALUE(IF(_input!$A530=0,0,_input!$A530*100/_input!$B530))</f>
+        <f>VALUE(IF(_input!$B530=0,0,_input!$A530*100/_input!$B530))</f>
         <v>0</v>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="C530" s="20">
-        <f>VALUE(IF(_input!$A531=0,0,_input!$A531*100/_input!$B531))</f>
+        <f>VALUE(IF(_input!$B531=0,0,_input!$A531*100/_input!$B531))</f>
         <v>0</v>
       </c>
     </row>
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="C531" s="20">
-        <f>VALUE(IF(_input!$A532=0,0,_input!$A532*100/_input!$B532))</f>
+        <f>VALUE(IF(_input!$B532=0,0,_input!$A532*100/_input!$B532))</f>
         <v>0</v>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="C532" s="20">
-        <f>VALUE(IF(_input!$A533=0,0,_input!$A533*100/_input!$B533))</f>
+        <f>VALUE(IF(_input!$B533=0,0,_input!$A533*100/_input!$B533))</f>
         <v>0</v>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="C533" s="20">
-        <f>VALUE(IF(_input!$A534=0,0,_input!$A534*100/_input!$B534))</f>
+        <f>VALUE(IF(_input!$B534=0,0,_input!$A534*100/_input!$B534))</f>
         <v>0</v>
       </c>
     </row>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="C534" s="20">
-        <f>VALUE(IF(_input!$A535=0,0,_input!$A535*100/_input!$B535))</f>
+        <f>VALUE(IF(_input!$B535=0,0,_input!$A535*100/_input!$B535))</f>
         <v>0</v>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="C535" s="20">
-        <f>VALUE(IF(_input!$A536=0,0,_input!$A536*100/_input!$B536))</f>
+        <f>VALUE(IF(_input!$B536=0,0,_input!$A536*100/_input!$B536))</f>
         <v>0</v>
       </c>
     </row>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="C536" s="20">
-        <f>VALUE(IF(_input!$A537=0,0,_input!$A537*100/_input!$B537))</f>
+        <f>VALUE(IF(_input!$B537=0,0,_input!$A537*100/_input!$B537))</f>
         <v>0</v>
       </c>
     </row>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="C537" s="20">
-        <f>VALUE(IF(_input!$A538=0,0,_input!$A538*100/_input!$B538))</f>
+        <f>VALUE(IF(_input!$B538=0,0,_input!$A538*100/_input!$B538))</f>
         <v>0</v>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="C538" s="20">
-        <f>VALUE(IF(_input!$A539=0,0,_input!$A539*100/_input!$B539))</f>
+        <f>VALUE(IF(_input!$B539=0,0,_input!$A539*100/_input!$B539))</f>
         <v>0</v>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="C539" s="20">
-        <f>VALUE(IF(_input!$A540=0,0,_input!$A540*100/_input!$B540))</f>
+        <f>VALUE(IF(_input!$B540=0,0,_input!$A540*100/_input!$B540))</f>
         <v>0</v>
       </c>
     </row>
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="C540" s="20">
-        <f>VALUE(IF(_input!$A541=0,0,_input!$A541*100/_input!$B541))</f>
+        <f>VALUE(IF(_input!$B541=0,0,_input!$A541*100/_input!$B541))</f>
         <v>0</v>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="C541" s="20">
-        <f>VALUE(IF(_input!$A542=0,0,_input!$A542*100/_input!$B542))</f>
+        <f>VALUE(IF(_input!$B542=0,0,_input!$A542*100/_input!$B542))</f>
         <v>0</v>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="C542" s="20">
-        <f>VALUE(IF(_input!$A543=0,0,_input!$A543*100/_input!$B543))</f>
+        <f>VALUE(IF(_input!$B543=0,0,_input!$A543*100/_input!$B543))</f>
         <v>0</v>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="C543" s="20">
-        <f>VALUE(IF(_input!$A544=0,0,_input!$A544*100/_input!$B544))</f>
+        <f>VALUE(IF(_input!$B544=0,0,_input!$A544*100/_input!$B544))</f>
         <v>0</v>
       </c>
     </row>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="C544" s="20">
-        <f>VALUE(IF(_input!$A545=0,0,_input!$A545*100/_input!$B545))</f>
+        <f>VALUE(IF(_input!$B545=0,0,_input!$A545*100/_input!$B545))</f>
         <v>0</v>
       </c>
     </row>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="C545" s="20">
-        <f>VALUE(IF(_input!$A546=0,0,_input!$A546*100/_input!$B546))</f>
+        <f>VALUE(IF(_input!$B546=0,0,_input!$A546*100/_input!$B546))</f>
         <v>0</v>
       </c>
     </row>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="C546" s="20">
-        <f>VALUE(IF(_input!$A547=0,0,_input!$A547*100/_input!$B547))</f>
+        <f>VALUE(IF(_input!$B547=0,0,_input!$A547*100/_input!$B547))</f>
         <v>0</v>
       </c>
     </row>
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="C547" s="20">
-        <f>VALUE(IF(_input!$A548=0,0,_input!$A548*100/_input!$B548))</f>
+        <f>VALUE(IF(_input!$B548=0,0,_input!$A548*100/_input!$B548))</f>
         <v>0</v>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="C548" s="20">
-        <f>VALUE(IF(_input!$A549=0,0,_input!$A549*100/_input!$B549))</f>
+        <f>VALUE(IF(_input!$B549=0,0,_input!$A549*100/_input!$B549))</f>
         <v>0</v>
       </c>
     </row>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="C549" s="20">
-        <f>VALUE(IF(_input!$A550=0,0,_input!$A550*100/_input!$B550))</f>
+        <f>VALUE(IF(_input!$B550=0,0,_input!$A550*100/_input!$B550))</f>
         <v>0</v>
       </c>
     </row>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="C550" s="20">
-        <f>VALUE(IF(_input!$A551=0,0,_input!$A551*100/_input!$B551))</f>
+        <f>VALUE(IF(_input!$B551=0,0,_input!$A551*100/_input!$B551))</f>
         <v>0</v>
       </c>
     </row>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="C551" s="20">
-        <f>VALUE(IF(_input!$A552=0,0,_input!$A552*100/_input!$B552))</f>
+        <f>VALUE(IF(_input!$B552=0,0,_input!$A552*100/_input!$B552))</f>
         <v>0</v>
       </c>
     </row>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="C552" s="20">
-        <f>VALUE(IF(_input!$A553=0,0,_input!$A553*100/_input!$B553))</f>
+        <f>VALUE(IF(_input!$B553=0,0,_input!$A553*100/_input!$B553))</f>
         <v>0</v>
       </c>
     </row>

--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-3.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-3.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,17 @@
   </si>
   <si>
     <t>custId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasRenderredParam</t>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +413,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -479,6 +490,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,11 +723,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80028800"/>
-        <c:axId val="80030336"/>
+        <c:axId val="85927040"/>
+        <c:axId val="85928576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80028800"/>
+        <c:axId val="85927040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,14 +736,14 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80030336"/>
+        <c:crossAx val="85928576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80030336"/>
+        <c:axId val="85928576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +752,7 @@
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80028800"/>
+        <c:crossAx val="85927040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -756,7 +770,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000001232" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001232" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -798,8 +812,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="paramTable" displayName="paramTable" ref="A8:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A8:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="paramTable" displayName="paramTable" ref="A8:G16" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A8:G16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="参数" dataDxfId="6"/>
     <tableColumn id="2" name="名称" dataDxfId="5"/>
@@ -1100,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N18"/>
+  <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,6 +1152,11 @@
         <v>29</v>
       </c>
     </row>
+    <row r="20" spans="14:14">
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1150,7 +1169,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1319,18 +1338,33 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="11" t="str">
-        <f>"CS趋势_"&amp;_input!$A2</f>
-        <v>CS趋势_分子</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="12"/>
+      <c r="C16" s="11" t="str">
+        <f ca="1">"CS趋势_"&amp;input!$E1</f>
+        <v>CS趋势_-</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1396,13 +1430,13 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:D552"/>
+  <dimension ref="A1:E552"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1416,8 +1450,12 @@
         <f>COUNTA(_input!$A:$A)-1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" thickBot="1">
+      <c r="E1" t="str">
+        <f ca="1">IF($D1&gt;2,$A2&amp;"~"&amp;OFFSET($A1,$D1 - 1,0),$A2)</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1">
       <c r="A2" s="21" t="str">
         <f>_input!C3</f>
         <v>-</v>
@@ -1431,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" thickBot="1">
+    <row r="3" spans="1:5" ht="14.25" thickBot="1">
       <c r="A3" s="21">
         <f>_input!C4</f>
         <v>0</v>
@@ -1445,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1">
       <c r="A4" s="21">
         <f>_input!C5</f>
         <v>0</v>
@@ -1459,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" thickBot="1">
+    <row r="5" spans="1:5" ht="14.25" thickBot="1">
       <c r="A5" s="21">
         <f>_input!C6</f>
         <v>0</v>
@@ -1473,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" thickBot="1">
+    <row r="6" spans="1:5" ht="14.25" thickBot="1">
       <c r="A6" s="21">
         <f>_input!C7</f>
         <v>0</v>
@@ -1487,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" thickBot="1">
+    <row r="7" spans="1:5" ht="14.25" thickBot="1">
       <c r="A7" s="21">
         <f>_input!C8</f>
         <v>0</v>
@@ -1501,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" thickBot="1">
+    <row r="8" spans="1:5" ht="14.25" thickBot="1">
       <c r="A8" s="21">
         <f>_input!C9</f>
         <v>0</v>
@@ -1515,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" thickBot="1">
+    <row r="9" spans="1:5" ht="14.25" thickBot="1">
       <c r="A9" s="21">
         <f>_input!C10</f>
         <v>0</v>
@@ -1529,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" thickBot="1">
+    <row r="10" spans="1:5" ht="14.25" thickBot="1">
       <c r="A10" s="21">
         <f>_input!C11</f>
         <v>0</v>
@@ -1543,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" thickBot="1">
+    <row r="11" spans="1:5" ht="14.25" thickBot="1">
       <c r="A11" s="21">
         <f>_input!C12</f>
         <v>0</v>
@@ -1557,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" thickBot="1">
+    <row r="12" spans="1:5" ht="14.25" thickBot="1">
       <c r="A12" s="21">
         <f>_input!C13</f>
         <v>0</v>
@@ -1571,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" thickBot="1">
+    <row r="13" spans="1:5" ht="14.25" thickBot="1">
       <c r="A13" s="21">
         <f>_input!C14</f>
         <v>0</v>
@@ -1585,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" thickBot="1">
+    <row r="14" spans="1:5" ht="14.25" thickBot="1">
       <c r="A14" s="21">
         <f>_input!C15</f>
         <v>0</v>
@@ -1599,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" thickBot="1">
+    <row r="15" spans="1:5" ht="14.25" thickBot="1">
       <c r="A15" s="21">
         <f>_input!C16</f>
         <v>0</v>
@@ -1613,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" thickBot="1">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1">
       <c r="A16" s="21">
         <f>_input!C17</f>
         <v>0</v>

--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-3.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-trend-3.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -723,11 +723,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85927040"/>
-        <c:axId val="85928576"/>
+        <c:axId val="86779008"/>
+        <c:axId val="86780544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85927040"/>
+        <c:axId val="86779008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,14 +736,14 @@
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85928576"/>
+        <c:crossAx val="86780544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85928576"/>
+        <c:axId val="86780544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +752,7 @@
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85927040"/>
+        <c:crossAx val="86779008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -770,7 +770,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000001266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000001277" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000001277" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1345,9 +1345,7 @@
       <c r="C15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="D15" s="11"/>
       <c r="E15" s="14"/>
       <c r="F15" s="23"/>
       <c r="G15" s="6"/>
